--- a/PEAR/PEAR Football/y2025/Spreads/spreads_tracker_week10.xlsx
+++ b/PEAR/PEAR Football/y2025/Spreads/spreads_tracker_week10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -716,40 +716,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Florida State</t>
+          <t>UConn</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Wake Forest</t>
+          <t>UAB</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>8.1</v>
+        <v>4.6</v>
       </c>
       <c r="E6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Florida State -7.0</t>
+          <t>UConn -12.5</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Florida State -7</t>
+          <t>UConn -11.5</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Florida State -12.5</t>
+          <t>UConn -16.5</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>11.5</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -866,40 +866,40 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Troy</t>
+          <t>Florida State</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Arkansas State</t>
+          <t>Wake Forest</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5.6</v>
+        <v>8.1</v>
       </c>
       <c r="E9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Troy -7.0</t>
+          <t>Florida State -7.0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Troy -7</t>
+          <t>Florida State -8.5</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Troy -11.1</t>
+          <t>Florida State -12.5</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>11.1</v>
+        <v>12.5</v>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
@@ -916,40 +916,40 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>UConn</t>
+          <t>Baylor</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>UAB</t>
+          <t>UCF</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4.6</v>
+        <v>8.9</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>UConn -12.5</t>
+          <t>Baylor -4.5</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>UConn -12.5</t>
+          <t>Baylor -5.5</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>UConn -16.5</t>
+          <t>Baylor -1.5</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>16.5</v>
+        <v>1.5</v>
       </c>
       <c r="J10" t="n">
-        <v>12.5</v>
+        <v>5.5</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -1116,40 +1116,40 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Michigan</t>
+          <t>Troy</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Purdue</t>
+          <t>Arkansas State</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="E14" t="n">
-        <v>3.600000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Michigan -20.5</t>
+          <t>Troy -7.0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Michigan -20.5</t>
+          <t>Troy -7.5</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Michigan -24.1</t>
+          <t>Troy -11.1</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>24.1</v>
+        <v>11.1</v>
       </c>
       <c r="J14" t="n">
-        <v>20.5</v>
+        <v>7.5</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -1216,40 +1216,40 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Iowa State</t>
+          <t>UL Monroe</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Arizona State</t>
+          <t>Old Dominion</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>3.199999999999999</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Iowa State -3.0</t>
+          <t>Old Dominion -14.0</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Iowa State -3</t>
+          <t>Old Dominion -14</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Iowa State -6.0</t>
+          <t>Old Dominion -17.2</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>-17.2</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>-14</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
@@ -1266,40 +1266,40 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Baylor</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>UCF</t>
+          <t>Purdue</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8.9</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Baylor -4.5</t>
+          <t>Michigan -20.5</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Baylor -4.5</t>
+          <t>Michigan -21</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Baylor -1.5</t>
+          <t>Michigan -24.1</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1.5</v>
+        <v>24.1</v>
       </c>
       <c r="J17" t="n">
-        <v>4.5</v>
+        <v>21</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
@@ -1366,40 +1366,40 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Missouri State</t>
+          <t>Coastal Carolina</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Florida International</t>
+          <t>Marshall</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="E19" t="n">
         <v>2.9</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Missouri State -2.5</t>
+          <t>Marshall -3.0</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Missouri State -3</t>
+          <t>Marshall -4</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Missouri State -5.9</t>
+          <t>Marshall -6.9</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>5.9</v>
+        <v>-6.9</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
@@ -1416,40 +1416,40 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Coastal Carolina</t>
+          <t>Boston College</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Marshall</t>
+          <t>Notre Dame</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="E20" t="n">
-        <v>2.9</v>
+        <v>2.800000000000001</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Marshall -3.0</t>
+          <t>Notre Dame -27.5</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Marshall -4</t>
+          <t>Notre Dame -27.5</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Marshall -6.9</t>
+          <t>Notre Dame -30.3</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>-6.9</v>
+        <v>-30.3</v>
       </c>
       <c r="J20" t="n">
-        <v>-4</v>
+        <v>-27.5</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -1466,40 +1466,40 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Boston College</t>
+          <t>Tennessee</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Notre Dame</t>
+          <t>Oklahoma</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>2.800000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Notre Dame -27.5</t>
+          <t>Tennessee -2.5</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Notre Dame -27.5</t>
+          <t>Tennessee -4</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Notre Dame -30.3</t>
+          <t>Tennessee -1.2</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>-30.3</v>
+        <v>1.2</v>
       </c>
       <c r="J21" t="n">
-        <v>-27.5</v>
+        <v>4</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
@@ -1516,40 +1516,40 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tennessee</t>
+          <t>Iowa State</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Oklahoma</t>
+          <t>Arizona State</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>9.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="E22" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tennessee -2.5</t>
+          <t>Iowa State -3.0</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Tennessee -4</t>
+          <t>Iowa State -3.5</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Tennessee -1.2</t>
+          <t>Iowa State -6.0</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
@@ -1566,40 +1566,40 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Oregon State</t>
+          <t>Stanford</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Washington State</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="E23" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Washington State -3.0</t>
+          <t>Pittsburgh -15.5</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Washington State -3</t>
+          <t>Pittsburgh -14.5</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Washington State -5.8</t>
+          <t>Pittsburgh -17.0</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>-5.8</v>
+        <v>-17</v>
       </c>
       <c r="J23" t="n">
-        <v>-3</v>
+        <v>-14.5</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
@@ -1616,40 +1616,40 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Illinois</t>
+          <t>Missouri State</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Rutgers</t>
+          <t>Florida International</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>8.1</v>
+        <v>5.1</v>
       </c>
       <c r="E24" t="n">
-        <v>2.300000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Illinois -10.5</t>
+          <t>Missouri State -2.5</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Illinois -10.5</t>
+          <t>Missouri State -3.5</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Illinois -12.8</t>
+          <t>Missouri State -5.9</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>12.8</v>
+        <v>5.9</v>
       </c>
       <c r="J24" t="n">
-        <v>10.5</v>
+        <v>3.5</v>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
@@ -1716,40 +1716,40 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Boise State</t>
+          <t>Oregon State</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fresno State</t>
+          <t>Washington State</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="E26" t="n">
-        <v>2.199999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Boise State -17.5</t>
+          <t>Washington State -3.0</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Boise State -17.5</t>
+          <t>Washington State -3.5</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Boise State -19.7</t>
+          <t>Washington State -5.8</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>19.7</v>
+        <v>-5.8</v>
       </c>
       <c r="J26" t="n">
-        <v>17.5</v>
+        <v>-3.5</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
@@ -1766,40 +1766,40 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Maryland</t>
+          <t>Boise State</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Indiana</t>
+          <t>Fresno State</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>7.5</v>
+        <v>5.4</v>
       </c>
       <c r="E27" t="n">
         <v>2.199999999999999</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Indiana -16.5</t>
+          <t>Boise State -17.5</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Indiana -22.5</t>
+          <t>Boise State -17.5</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Indiana -20.3</t>
+          <t>Boise State -19.7</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>-20.3</v>
+        <v>19.7</v>
       </c>
       <c r="J27" t="n">
-        <v>-22.5</v>
+        <v>17.5</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -1816,40 +1816,40 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Colorado</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Arizona</t>
+          <t>Indiana</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Arizona -4.5</t>
+          <t>Indiana -16.5</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Arizona -4.5</t>
+          <t>Indiana -22.5</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Arizona -2.5</t>
+          <t>Indiana -20.3</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>-2.5</v>
+        <v>-20.3</v>
       </c>
       <c r="J28" t="n">
-        <v>-4.5</v>
+        <v>-22.5</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -1866,40 +1866,40 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Middle Tennessee</t>
+          <t>Western Kentucky</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Jacksonville State</t>
+          <t>New Mexico State</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="E29" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Jacksonville State -6.5</t>
+          <t>Western Kentucky -9.5</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Jacksonville State -6</t>
+          <t>Western Kentucky -9.5</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Jacksonville State -7.6</t>
+          <t>Western Kentucky -11.6</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>-7.6</v>
+        <v>11.6</v>
       </c>
       <c r="J29" t="n">
-        <v>-6</v>
+        <v>9.5</v>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
@@ -1916,40 +1916,40 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Minnesota</t>
+          <t>Virginia Tech</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Michigan State</t>
+          <t>Louisville</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>8.1</v>
+        <v>6.8</v>
       </c>
       <c r="E30" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Minnesota -5.5</t>
+          <t>Louisville -11.5</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Minnesota -5.5</t>
+          <t>Louisville -10.5</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Minnesota -7.0</t>
+          <t>Louisville -12.6</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>7</v>
+        <v>-12.6</v>
       </c>
       <c r="J30" t="n">
-        <v>5.5</v>
+        <v>-10.5</v>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
@@ -1966,37 +1966,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>UTSA</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tulane</t>
+          <t>Arizona</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>7.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tulane -3.5</t>
+          <t>Arizona -4.5</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Tulane -4.5</t>
+          <t>Arizona -4.5</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Tulane -3.0</t>
+          <t>Arizona -2.5</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>-3</v>
+        <v>-2.5</v>
       </c>
       <c r="J31" t="n">
         <v>-4.5</v>
@@ -2016,40 +2016,40 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Stanford</t>
+          <t>San Diego State</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>Wyoming</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="E32" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Pittsburgh -15.5</t>
+          <t>San Diego State -10.0</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pittsburgh -15.5</t>
+          <t>San Diego State -11.5</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Pittsburgh -17.0</t>
+          <t>San Diego State -13.4</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>-17</v>
+        <v>13.4</v>
       </c>
       <c r="J32" t="n">
-        <v>-15.5</v>
+        <v>11.5</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
@@ -2066,40 +2066,40 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SMU</t>
+          <t>Middle Tennessee</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Jacksonville State</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>8.800000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="E33" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Miami -1.5</t>
+          <t>Jacksonville State -6.5</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Miami -10.5</t>
+          <t>Jacksonville State -6</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Miami -9.1</t>
+          <t>Jacksonville State -7.6</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>-9.1</v>
+        <v>-7.6</v>
       </c>
       <c r="J33" t="n">
-        <v>-10.5</v>
+        <v>-6</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
@@ -2116,40 +2116,40 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NC State</t>
+          <t>Ole Miss</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Georgia Tech</t>
+          <t>South Carolina</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="E34" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Georgia Tech -4.5</t>
+          <t>Ole Miss -13.5</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Georgia Tech -6.5</t>
+          <t>Ole Miss -13.5</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Georgia Tech -7.7</t>
+          <t>Ole Miss -15.0</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>-7.7</v>
+        <v>15</v>
       </c>
       <c r="J34" t="n">
-        <v>-6.5</v>
+        <v>13.5</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
@@ -2166,40 +2166,40 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Virginia Tech</t>
+          <t>Minnesota</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Louisville</t>
+          <t>Michigan State</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>6.8</v>
+        <v>8.1</v>
       </c>
       <c r="E35" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Louisville -11.5</t>
+          <t>Minnesota -5.5</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Louisville -11.5</t>
+          <t>Minnesota -5.5</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Louisville -12.6</t>
+          <t>Minnesota -7.0</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>-12.6</v>
+        <v>7</v>
       </c>
       <c r="J35" t="n">
-        <v>-11.5</v>
+        <v>5.5</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
@@ -2216,40 +2216,40 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Clemson</t>
+          <t>UNLV</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Duke</t>
+          <t>New Mexico</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>9.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Clemson -3.5</t>
+          <t>UNLV -5.5</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Clemson -3.5</t>
+          <t>UNLV -4.5</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Clemson -4.5</t>
+          <t>UNLV -6.0</t>
         </is>
       </c>
       <c r="I36" t="n">
+        <v>6</v>
+      </c>
+      <c r="J36" t="n">
         <v>4.5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.5</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
@@ -2266,40 +2266,40 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Air Force</t>
+          <t>UTSA</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Army</t>
+          <t>Tulane</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Army -1.5</t>
+          <t>Tulane -3.5</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Army -2.5</t>
+          <t>Tulane -4.5</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Army -1.5</t>
+          <t>Tulane -3.0</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>-1.5</v>
+        <v>-3</v>
       </c>
       <c r="J37" t="n">
-        <v>-2.5</v>
+        <v>-4.5</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
@@ -2316,40 +2316,40 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Western Michigan</t>
+          <t>SMU</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Central Michigan</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>6.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Western Michigan -6.0</t>
+          <t>Miami -1.5</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Western Michigan -6</t>
+          <t>Miami -10.5</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Western Michigan -6.5</t>
+          <t>Miami -9.1</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>6.5</v>
+        <v>-9.1</v>
       </c>
       <c r="J38" t="n">
-        <v>6</v>
+        <v>-10.5</v>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
@@ -2366,40 +2366,40 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>UNLV</t>
+          <t>Nebraska</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>New Mexico</t>
+          <t>USC</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>7.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>UNLV -5.5</t>
+          <t>USC -4.5</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>UNLV -5.5</t>
+          <t>USC -6</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>UNLV -6.0</t>
+          <t>USC -4.6</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>6</v>
+        <v>-4.6</v>
       </c>
       <c r="J39" t="n">
-        <v>5.5</v>
+        <v>-6</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
@@ -2416,40 +2416,40 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>NC State</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>West Virginia</t>
+          <t>Georgia Tech</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>6.5</v>
+        <v>8.1</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4000000000000004</v>
+        <v>1.2</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Houston -15.5</t>
+          <t>Georgia Tech -4.5</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Houston -15.5</t>
+          <t>Georgia Tech -6.5</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Houston -15.1</t>
+          <t>Georgia Tech -7.7</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>15.1</v>
+        <v>-7.7</v>
       </c>
       <c r="J40" t="n">
-        <v>15.5</v>
+        <v>-6.5</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
@@ -2466,40 +2466,40 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>South Alabama</t>
+          <t>Liberty</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Louisiana</t>
+          <t>Delaware</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>South Alabama -4.5</t>
+          <t>Liberty -2.5</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>South Alabama -4.5</t>
+          <t>Liberty -3</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>South Alabama -4.8</t>
+          <t>Liberty -4.1</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="J41" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
@@ -2516,40 +2516,40 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Texas State</t>
+          <t>Kansas</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>James Madison</t>
+          <t>Oklahoma State</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2000000000000002</v>
+        <v>1</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>James Madison -6.5</t>
+          <t>Kansas -24.5</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>James Madison -6.5</t>
+          <t>Kansas -25.5</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>James Madison -6.7</t>
+          <t>Kansas -26.5</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>-6.7</v>
+        <v>26.5</v>
       </c>
       <c r="J42" t="n">
-        <v>-6.5</v>
+        <v>25.5</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
@@ -2566,40 +2566,40 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Temple</t>
+          <t>Clemson</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>East Carolina</t>
+          <t>Duke</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>7.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2000000000000002</v>
+        <v>1</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>East Carolina -4.5</t>
+          <t>Clemson -3.5</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>East Carolina -4.5</t>
+          <t>Clemson -3.5</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>East Carolina -4.7</t>
+          <t>Clemson -4.5</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>-4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J43" t="n">
-        <v>-4.5</v>
+        <v>3.5</v>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
@@ -2616,40 +2616,40 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Bowling Green</t>
+          <t>Arkansas</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Buffalo</t>
+          <t>Mississippi State</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Bowling Green -1.5</t>
+          <t>Arkansas -3.5</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Bowling Green -1.5</t>
+          <t>Arkansas -3.5</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Bowling Green -1.7</t>
+          <t>Arkansas -4.4</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
       <c r="J44" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
@@ -2666,40 +2666,40 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Nebraska</t>
+          <t>South Alabama</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>USC</t>
+          <t>Louisiana</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>9.300000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="E45" t="n">
-        <v>0.09999999999999964</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>USC -4.5</t>
+          <t>South Alabama -4.5</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>USC -4.5</t>
+          <t>South Alabama -4</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>USC -4.6</t>
+          <t>South Alabama -4.8</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>-4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J45" t="n">
-        <v>-4.5</v>
+        <v>4</v>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
@@ -2710,6 +2710,406 @@
         <v>0</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>West Virginia</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Houston -15.5</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Houston -15.5</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Houston -15.1</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Illinois</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Rutgers</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.3000000000000007</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Illinois -10.5</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Illinois -12.5</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Illinois -12.8</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Texas State</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>James Madison</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>7</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>James Madison -6.5</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>James Madison -6.5</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>James Madison -6.7</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>-6.7</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Temple</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>East Carolina</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>East Carolina -4.5</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>East Carolina -4.5</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>East Carolina -4.7</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>-4.7</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Bowling Green</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Buffalo</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Bowling Green -1.5</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Bowling Green -1.5</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Bowling Green -1.7</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Western Michigan</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Central Michigan</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Western Michigan -6.0</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Western Michigan -6.5</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Western Michigan -6.5</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>San José State</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Hawai'i</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>7</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>San José State -1.5</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>San José State -1.5</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>San José State -1.5</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Air Force</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Army</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>7</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Army -1.5</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Army -1.5</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Army -1.5</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/PEAR/PEAR Football/y2025/Spreads/spreads_tracker_week10.xlsx
+++ b/PEAR/PEAR Football/y2025/Spreads/spreads_tracker_week10.xlsx
@@ -516,40 +516,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Utah</t>
+          <t>Rice</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cincinnati</t>
+          <t>Memphis</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9.199999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="E2" t="n">
-        <v>5.800000000000001</v>
+        <v>6.100000000000001</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Utah -5.5</t>
+          <t>Memphis -14.0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Utah -6.5</t>
+          <t>Memphis -14.0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Utah -12.3</t>
+          <t>Memphis -20.1</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>12.3</v>
+        <v>-20.1</v>
       </c>
       <c r="J2" t="n">
-        <v>6.5</v>
+        <v>-14</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
@@ -566,40 +566,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louisiana Tech</t>
+          <t>Utah</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sam Houston</t>
+          <t>Cincinnati</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>5.800000000000001</v>
+        <v>5.300000000000001</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Louisiana Tech -17.5</t>
+          <t>Utah -7.0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Louisiana Tech -16.5</t>
+          <t>Utah -7.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Louisiana Tech -22.3</t>
+          <t>Utah -12.3</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>22.3</v>
+        <v>12.3</v>
       </c>
       <c r="J3" t="n">
-        <v>16.5</v>
+        <v>7</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -616,40 +616,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Syracuse</t>
+          <t>Louisiana Tech</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>North Carolina</t>
+          <t>Sam Houston</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6.9</v>
+        <v>2.5</v>
       </c>
       <c r="E4" t="n">
-        <v>5.7</v>
+        <v>5.300000000000001</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Syracuse -nan</t>
+          <t>Louisiana Tech -17.0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Syracuse -1.5</t>
+          <t>Louisiana Tech -17.0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Syracuse -7.2</t>
+          <t>Louisiana Tech -22.3</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>7.2</v>
+        <v>22.3</v>
       </c>
       <c r="J4" t="n">
-        <v>1.5</v>
+        <v>17</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -666,40 +666,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rice</t>
+          <t>Florida State</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Memphis</t>
+          <t>Wake Forest</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3.5</v>
+        <v>8.1</v>
       </c>
       <c r="E5" t="n">
-        <v>5.600000000000001</v>
+        <v>5</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Memphis -17.5</t>
+          <t>Florida State -7.5</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Memphis -14.5</t>
+          <t>Florida State -7.5</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Memphis -20.1</t>
+          <t>Florida State -12.5</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>-20.1</v>
+        <v>12.5</v>
       </c>
       <c r="J5" t="n">
-        <v>-14.5</v>
+        <v>7.5</v>
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
@@ -716,40 +716,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UConn</t>
+          <t>Syracuse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UAB</t>
+          <t>North Carolina</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.6</v>
+        <v>6.9</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>UConn -12.5</t>
+          <t>Syracuse -2.0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>UConn -11.5</t>
+          <t>Syracuse -2.5</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>UConn -16.5</t>
+          <t>Syracuse -7.2</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>16.5</v>
+        <v>7.2</v>
       </c>
       <c r="J6" t="n">
-        <v>11.5</v>
+        <v>2.5</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -766,40 +766,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>UConn</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>UAB</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6.9</v>
+        <v>4.6</v>
       </c>
       <c r="E7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Virginia -4.0</t>
+          <t>UConn -11.5</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Virginia -4</t>
+          <t>UConn -12.0</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Virginia -8.4</t>
+          <t>UConn -16.5</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>-8.4</v>
+        <v>16.5</v>
       </c>
       <c r="J7" t="n">
-        <v>-4</v>
+        <v>12</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ohio State -4.0</t>
+          <t>Ohio State -21.0</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -866,40 +866,40 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Florida State</t>
+          <t>Auburn</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Wake Forest</t>
+          <t>Kentucky</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>8.1</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Florida State -7.0</t>
+          <t>Auburn -10.0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Florida State -8.5</t>
+          <t>Auburn -10.0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Florida State -12.5</t>
+          <t>Auburn -13.9</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>12.5</v>
+        <v>13.9</v>
       </c>
       <c r="J9" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
@@ -916,40 +916,40 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Baylor</t>
+          <t>California</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>UCF</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8.9</v>
+        <v>6.9</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Baylor -4.5</t>
+          <t>Virginia -4.5</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Baylor -5.5</t>
+          <t>Virginia -4.5</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Baylor -1.5</t>
+          <t>Virginia -8.4</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1.5</v>
+        <v>-8.4</v>
       </c>
       <c r="J10" t="n">
-        <v>5.5</v>
+        <v>-4.5</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -966,40 +966,40 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Auburn</t>
+          <t>Baylor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Kentucky</t>
+          <t>UCF</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8.1</v>
+        <v>8.9</v>
       </c>
       <c r="E11" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Auburn -10.0</t>
+          <t>Baylor -4.5</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Auburn -10</t>
+          <t>Baylor -5.0</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Auburn -13.9</t>
+          <t>Baylor -1.5</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>13.9</v>
+        <v>1.5</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -1016,40 +1016,40 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Kennesaw State</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>UTEP</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4.8</v>
+        <v>9.1</v>
       </c>
       <c r="E12" t="n">
-        <v>3.800000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kennesaw State -10.0</t>
+          <t>Georgia -7.5</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Kennesaw State -8.5</t>
+          <t>Georgia -7.5</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Kennesaw State -12.3</t>
+          <t>Georgia -10.9</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>12.3</v>
+        <v>-10.9</v>
       </c>
       <c r="J12" t="n">
-        <v>8.5</v>
+        <v>-7.5</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -1078,16 +1078,16 @@
         <v>9.699999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Texas -3.5</t>
+          <t>Texas -3.0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Texas -2.5</t>
+          <t>Texas -3.0</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1099,7 +1099,7 @@
         <v>6.2</v>
       </c>
       <c r="J13" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
@@ -1116,40 +1116,40 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Troy</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Arkansas State</t>
+          <t>Purdue</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>3.6</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Troy -7.0</t>
+          <t>Michigan -21.0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Troy -7.5</t>
+          <t>Michigan -21.0</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Troy -11.1</t>
+          <t>Michigan -24.1</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>11.1</v>
+        <v>24.1</v>
       </c>
       <c r="J14" t="n">
-        <v>7.5</v>
+        <v>21</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -1166,40 +1166,40 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Florida</t>
+          <t>Troy</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Arkansas State</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>9.1</v>
+        <v>5.6</v>
       </c>
       <c r="E15" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Georgia -7.5</t>
+          <t>Troy -8.0</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Georgia -7.5</t>
+          <t>Troy -8.0</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Georgia -10.9</t>
+          <t>Troy -11.1</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>-10.9</v>
+        <v>11.1</v>
       </c>
       <c r="J15" t="n">
-        <v>-7.5</v>
+        <v>8</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
@@ -1216,40 +1216,40 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>UL Monroe</t>
+          <t>Western Kentucky</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Old Dominion</t>
+          <t>New Mexico State</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E16" t="n">
-        <v>3.199999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Old Dominion -14.0</t>
+          <t>Western Kentucky -8.5</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Old Dominion -14</t>
+          <t>Western Kentucky -8.5</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Old Dominion -17.2</t>
+          <t>Western Kentucky -11.6</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>-17.2</v>
+        <v>11.6</v>
       </c>
       <c r="J16" t="n">
-        <v>-14</v>
+        <v>8.5</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
@@ -1266,40 +1266,40 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Michigan</t>
+          <t>Minnesota</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Purdue</t>
+          <t>Michigan State</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="E17" t="n">
-        <v>3.100000000000001</v>
+        <v>3</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Michigan -20.5</t>
+          <t>Minnesota -4.0</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Michigan -21</t>
+          <t>Minnesota -4.0</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Michigan -24.1</t>
+          <t>Minnesota -7.0</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>24.1</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
@@ -1316,40 +1316,40 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>North Texas</t>
+          <t>Stanford</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Navy</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>8.300000000000001</v>
+        <v>5.1</v>
       </c>
       <c r="E18" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>North Texas -4.5</t>
+          <t>Pittsburgh -14.0</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>North Texas -6.5</t>
+          <t>Pittsburgh -14.0</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>North Texas -9.4</t>
+          <t>Pittsburgh -17.0</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>9.4</v>
+        <v>-17</v>
       </c>
       <c r="J18" t="n">
-        <v>6.5</v>
+        <v>-14</v>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
@@ -1366,40 +1366,40 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Coastal Carolina</t>
+          <t>North Texas</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Marshall</t>
+          <t>Navy</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E19" t="n">
         <v>2.9</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Marshall -3.0</t>
+          <t>North Texas -6.5</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Marshall -4</t>
+          <t>North Texas -6.5</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Marshall -6.9</t>
+          <t>North Texas -9.4</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>-6.9</v>
+        <v>9.4</v>
       </c>
       <c r="J19" t="n">
-        <v>-4</v>
+        <v>6.5</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
@@ -1416,40 +1416,40 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Boston College</t>
+          <t>Coastal Carolina</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Notre Dame</t>
+          <t>Marshall</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="E20" t="n">
-        <v>2.800000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Notre Dame -27.5</t>
+          <t>Marshall -4.0</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Notre Dame -27.5</t>
+          <t>Marshall -4.0</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Notre Dame -30.3</t>
+          <t>Marshall -6.9</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>-30.3</v>
+        <v>-6.9</v>
       </c>
       <c r="J20" t="n">
-        <v>-27.5</v>
+        <v>-4</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -1466,40 +1466,40 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tennessee</t>
+          <t>Virginia Tech</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Oklahoma</t>
+          <t>Louisville</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>9.699999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="E21" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tennessee -2.5</t>
+          <t>Louisville -10.0</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Tennessee -4</t>
+          <t>Louisville -10.0</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Tennessee -1.2</t>
+          <t>Louisville -12.6</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1.2</v>
+        <v>-12.6</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>-10</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
@@ -1516,40 +1516,40 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Iowa State</t>
+          <t>San Diego State</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Arizona State</t>
+          <t>Wyoming</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="E22" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Iowa State -3.0</t>
+          <t>San Diego State -11.0</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Iowa State -3.5</t>
+          <t>San Diego State -11.0</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Iowa State -6.0</t>
+          <t>San Diego State -13.4</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>13.4</v>
       </c>
       <c r="J22" t="n">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
@@ -1566,40 +1566,40 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Stanford</t>
+          <t>Kennesaw State</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>UTEP</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="E23" t="n">
-        <v>2.5</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Pittsburgh -15.5</t>
+          <t>Kennesaw State -9.5</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Pittsburgh -14.5</t>
+          <t>Kennesaw State -10.0</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Pittsburgh -17.0</t>
+          <t>Kennesaw State -12.3</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>-17</v>
+        <v>12.3</v>
       </c>
       <c r="J23" t="n">
-        <v>-14.5</v>
+        <v>10</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
@@ -1616,40 +1616,40 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Missouri State</t>
+          <t>Kansas State</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Florida International</t>
+          <t>Texas Tech</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5.1</v>
+        <v>8.9</v>
       </c>
       <c r="E24" t="n">
-        <v>2.4</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Missouri State -2.5</t>
+          <t>Texas Tech -7.0</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Missouri State -3.5</t>
+          <t>Texas Tech -7.0</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Missouri State -5.9</t>
+          <t>Texas Tech -9.3</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>5.9</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>3.5</v>
+        <v>-7</v>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
@@ -1666,40 +1666,40 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Kansas State</t>
+          <t>Tennessee</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Texas Tech</t>
+          <t>Oklahoma</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>8.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>2.300000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Kansas State -4.5</t>
+          <t>Tennessee -3.5</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Texas Tech -7</t>
+          <t>Tennessee -3.5</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Texas Tech -9.3</t>
+          <t>Tennessee -1.2</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>-9.300000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="J25" t="n">
-        <v>-7</v>
+        <v>3.5</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
@@ -1716,40 +1716,40 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Oregon State</t>
+          <t>UL Monroe</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Washington State</t>
+          <t>Old Dominion</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5.9</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>2.3</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Washington State -3.0</t>
+          <t>Old Dominion -15.0</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Washington State -3.5</t>
+          <t>Old Dominion -15.0</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Washington State -5.8</t>
+          <t>Old Dominion -17.2</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>-5.8</v>
+        <v>-17.2</v>
       </c>
       <c r="J26" t="n">
-        <v>-3.5</v>
+        <v>-15</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
@@ -1766,40 +1766,40 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Boise State</t>
+          <t>Kansas</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Fresno State</t>
+          <t>Oklahoma State</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>5.4</v>
+        <v>3.2</v>
       </c>
       <c r="E27" t="n">
-        <v>2.199999999999999</v>
+        <v>2</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Boise State -17.5</t>
+          <t>Kansas -24.5</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Boise State -17.5</t>
+          <t>Kansas -24.5</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Boise State -19.7</t>
+          <t>Kansas -26.5</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>19.7</v>
+        <v>26.5</v>
       </c>
       <c r="J27" t="n">
-        <v>17.5</v>
+        <v>24.5</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -1816,40 +1816,40 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Maryland</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Indiana</t>
+          <t>Arizona</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>7.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>2.199999999999999</v>
+        <v>2</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Indiana -16.5</t>
+          <t>Arizona -4.5</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Indiana -22.5</t>
+          <t>Arizona -4.5</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Indiana -20.3</t>
+          <t>Arizona -2.5</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>-20.3</v>
+        <v>-2.5</v>
       </c>
       <c r="J28" t="n">
-        <v>-22.5</v>
+        <v>-4.5</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -1866,40 +1866,40 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Western Kentucky</t>
+          <t>Iowa State</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>New Mexico State</t>
+          <t>Arizona State</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="E29" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Western Kentucky -9.5</t>
+          <t>Iowa State -4.0</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Western Kentucky -9.5</t>
+          <t>Iowa State -4.0</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Western Kentucky -11.6</t>
+          <t>Iowa State -6.0</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>11.6</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
-        <v>9.5</v>
+        <v>4</v>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
@@ -1916,40 +1916,40 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Virginia Tech</t>
+          <t>Missouri State</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Louisville</t>
+          <t>Florida International</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6.8</v>
+        <v>5.1</v>
       </c>
       <c r="E30" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Louisville -11.5</t>
+          <t>Missouri State -4.0</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Louisville -10.5</t>
+          <t>Missouri State -4.0</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Louisville -12.6</t>
+          <t>Missouri State -5.9</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>-12.6</v>
+        <v>5.9</v>
       </c>
       <c r="J30" t="n">
-        <v>-10.5</v>
+        <v>4</v>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
@@ -1966,40 +1966,40 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Colorado</t>
+          <t>Boston College</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Arizona</t>
+          <t>Notre Dame</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>8.300000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>1.800000000000001</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Arizona -4.5</t>
+          <t>Notre Dame -28.5</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Arizona -4.5</t>
+          <t>Notre Dame -28.5</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Arizona -2.5</t>
+          <t>Notre Dame -30.3</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>-2.5</v>
+        <v>-30.3</v>
       </c>
       <c r="J31" t="n">
-        <v>-4.5</v>
+        <v>-28.5</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
@@ -2016,40 +2016,40 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>San Diego State</t>
+          <t>Oregon State</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Wyoming</t>
+          <t>Washington State</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="E32" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>San Diego State -10.0</t>
+          <t>Washington State -4.5</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>San Diego State -11.5</t>
+          <t>Washington State -4.0</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>San Diego State -13.4</t>
+          <t>Washington State -5.8</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>13.4</v>
+        <v>-5.8</v>
       </c>
       <c r="J32" t="n">
-        <v>11.5</v>
+        <v>-4</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Jacksonville State -6</t>
+          <t>Jacksonville State -6.0</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2166,40 +2166,40 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Minnesota</t>
+          <t>Nebraska</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Michigan State</t>
+          <t>USC</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>8.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Minnesota -5.5</t>
+          <t>USC -6.0</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Minnesota -5.5</t>
+          <t>USC -6.0</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Minnesota -7.0</t>
+          <t>USC -4.6</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>7</v>
+        <v>-4.6</v>
       </c>
       <c r="J35" t="n">
-        <v>5.5</v>
+        <v>-6</v>
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
@@ -2216,40 +2216,40 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>UNLV</t>
+          <t>NC State</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>New Mexico</t>
+          <t>Georgia Tech</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
       <c r="E36" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>UNLV -5.5</t>
+          <t>Georgia Tech -6.5</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>UNLV -4.5</t>
+          <t>Georgia Tech -6.5</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>UNLV -6.0</t>
+          <t>Georgia Tech -7.7</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>6</v>
+        <v>-7.7</v>
       </c>
       <c r="J36" t="n">
-        <v>4.5</v>
+        <v>-6.5</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
@@ -2266,40 +2266,40 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>UTSA</t>
+          <t>Boise State</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Tulane</t>
+          <t>Fresno State</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>7.7</v>
+        <v>5.4</v>
       </c>
       <c r="E37" t="n">
-        <v>1.5</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tulane -3.5</t>
+          <t>Boise State -18.5</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Tulane -4.5</t>
+          <t>Boise State -18.5</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Tulane -3.0</t>
+          <t>Boise State -19.7</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>-3</v>
+        <v>19.7</v>
       </c>
       <c r="J37" t="n">
-        <v>-4.5</v>
+        <v>18.5</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
@@ -2316,40 +2316,40 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SMU</t>
+          <t>Liberty</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Delaware</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>8.800000000000001</v>
+        <v>6.3</v>
       </c>
       <c r="E38" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Miami -1.5</t>
+          <t>Liberty -3.0</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Miami -10.5</t>
+          <t>Liberty -3.0</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Miami -9.1</t>
+          <t>Liberty -4.1</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>-9.1</v>
+        <v>4.1</v>
       </c>
       <c r="J38" t="n">
-        <v>-10.5</v>
+        <v>3</v>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
@@ -2366,40 +2366,40 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Nebraska</t>
+          <t>Western Michigan</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>USC</t>
+          <t>Central Michigan</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>9.300000000000001</v>
+        <v>6.3</v>
       </c>
       <c r="E39" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>USC -4.5</t>
+          <t>Western Michigan -5.5</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>USC -6</t>
+          <t>Western Michigan -5.5</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>USC -4.6</t>
+          <t>Western Michigan -6.5</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>-4.6</v>
+        <v>6.5</v>
       </c>
       <c r="J39" t="n">
-        <v>-6</v>
+        <v>5.5</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
@@ -2416,40 +2416,40 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NC State</t>
+          <t>UNLV</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Georgia Tech</t>
+          <t>New Mexico</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>8.1</v>
+        <v>7.6</v>
       </c>
       <c r="E40" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Georgia Tech -4.5</t>
+          <t>UNLV -5.0</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Georgia Tech -6.5</t>
+          <t>UNLV -5.0</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Georgia Tech -7.7</t>
+          <t>UNLV -6.0</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>-7.7</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
-        <v>-6.5</v>
+        <v>5</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
@@ -2466,40 +2466,40 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Liberty</t>
+          <t>Clemson</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Delaware</t>
+          <t>Duke</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>6.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Liberty -2.5</t>
+          <t>Clemson -3.5</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Liberty -3</t>
+          <t>Clemson -3.5</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Liberty -4.1</t>
+          <t>Clemson -4.5</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
@@ -2516,40 +2516,40 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Kansas</t>
+          <t>San José State</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Oklahoma State</t>
+          <t>Hawai'i</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Kansas -24.5</t>
+          <t>San José State -2.5</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Kansas -25.5</t>
+          <t>San José State -2.5</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Kansas -26.5</t>
+          <t>San José State -1.5</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>26.5</v>
+        <v>1.5</v>
       </c>
       <c r="J42" t="n">
-        <v>25.5</v>
+        <v>2.5</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
@@ -2566,40 +2566,40 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Clemson</t>
+          <t>UTSA</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Duke</t>
+          <t>Tulane</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>9.199999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Clemson -3.5</t>
+          <t>Tulane -4.0</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Clemson -3.5</t>
+          <t>Tulane -4.0</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Clemson -4.5</t>
+          <t>Tulane -3.0</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>4.5</v>
+        <v>-3</v>
       </c>
       <c r="J43" t="n">
-        <v>3.5</v>
+        <v>-4</v>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
@@ -2616,40 +2616,40 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Arkansas</t>
+          <t>South Alabama</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mississippi State</t>
+          <t>Louisiana</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>9.300000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9000000000000004</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Arkansas -3.5</t>
+          <t>South Alabama -4.0</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Arkansas -3.5</t>
+          <t>South Alabama -4.0</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Arkansas -4.4</t>
+          <t>South Alabama -4.8</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="J44" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
@@ -2666,40 +2666,40 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>South Alabama</t>
+          <t>Texas State</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Louisiana</t>
+          <t>James Madison</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7999999999999998</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>South Alabama -4.5</t>
+          <t>James Madison -6.0</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>South Alabama -4</t>
+          <t>James Madison -6.0</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>South Alabama -4.8</t>
+          <t>James Madison -6.7</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>4.8</v>
+        <v>-6.7</v>
       </c>
       <c r="J45" t="n">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
@@ -2716,40 +2716,40 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>West Virginia</t>
+          <t>Indiana</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4000000000000004</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Houston -15.5</t>
+          <t>Indiana -21.0</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Houston -15.5</t>
+          <t>Indiana -21.0</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Houston -15.1</t>
+          <t>Indiana -20.3</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>15.1</v>
+        <v>-20.3</v>
       </c>
       <c r="J46" t="n">
-        <v>15.5</v>
+        <v>-21</v>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
@@ -2766,40 +2766,40 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Illinois</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Rutgers</t>
+          <t>West Virginia</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>8.1</v>
+        <v>6.5</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3000000000000007</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Illinois -10.5</t>
+          <t>Houston -14.5</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Illinois -12.5</t>
+          <t>Houston -14.5</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Illinois -12.8</t>
+          <t>Houston -15.1</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>12.8</v>
+        <v>15.1</v>
       </c>
       <c r="J47" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
@@ -2816,40 +2816,40 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Texas State</t>
+          <t>Air Force</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>James Madison</t>
+          <t>Army</t>
         </is>
       </c>
       <c r="D48" t="n">
         <v>7</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>James Madison -6.5</t>
+          <t>Army -1.0</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>James Madison -6.5</t>
+          <t>Army -1.0</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>James Madison -6.7</t>
+          <t>Army -1.5</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>-6.7</v>
+        <v>-1.5</v>
       </c>
       <c r="J48" t="n">
-        <v>-6.5</v>
+        <v>-1</v>
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
@@ -2866,40 +2866,40 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Temple</t>
+          <t>SMU</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>East Carolina</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2000000000000002</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>East Carolina -4.5</t>
+          <t>Miami -10.5</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>East Carolina -4.5</t>
+          <t>Miami -9.5</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>East Carolina -4.7</t>
+          <t>Miami -9.1</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>-4.7</v>
+        <v>-9.1</v>
       </c>
       <c r="J49" t="n">
-        <v>-4.5</v>
+        <v>-9.5</v>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
@@ -2916,40 +2916,40 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Bowling Green</t>
+          <t>Temple</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Buffalo</t>
+          <t>East Carolina</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>6.1</v>
+        <v>7.2</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Bowling Green -1.5</t>
+          <t>East Carolina -4.5</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Bowling Green -1.5</t>
+          <t>East Carolina -4.5</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Bowling Green -1.7</t>
+          <t>East Carolina -4.7</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1.7</v>
+        <v>-4.7</v>
       </c>
       <c r="J50" t="n">
-        <v>1.5</v>
+        <v>-4.5</v>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
@@ -2966,40 +2966,40 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Western Michigan</t>
+          <t>Bowling Green</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Central Michigan</t>
+          <t>Buffalo</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Western Michigan -6.0</t>
+          <t>Bowling Green -2.0</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Western Michigan -6.5</t>
+          <t>Bowling Green -1.5</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Western Michigan -6.5</t>
+          <t>Bowling Green -1.7</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>6.5</v>
+        <v>1.7</v>
       </c>
       <c r="J51" t="n">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
@@ -3016,40 +3016,40 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>San José State</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Hawai'i</t>
+          <t>Rutgers</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>7</v>
+        <v>8.1</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>San José State -1.5</t>
+          <t>Illinois -13.0</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>San José State -1.5</t>
+          <t>Illinois -13.0</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>San José State -1.5</t>
+          <t>Illinois -12.8</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1.5</v>
+        <v>12.8</v>
       </c>
       <c r="J52" t="n">
-        <v>1.5</v>
+        <v>13</v>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
@@ -3066,40 +3066,40 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Air Force</t>
+          <t>Arkansas</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Army</t>
+          <t>Mississippi State</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Army -1.5</t>
+          <t>Arkansas -4.5</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Army -1.5</t>
+          <t>Arkansas -4.5</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Army -1.5</t>
+          <t>Arkansas -4.4</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>-1.5</v>
+        <v>4.4</v>
       </c>
       <c r="J53" t="n">
-        <v>-1.5</v>
+        <v>4.5</v>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>

--- a/PEAR/PEAR Football/y2025/Spreads/spreads_tracker_week10.xlsx
+++ b/PEAR/PEAR Football/y2025/Spreads/spreads_tracker_week10.xlsx
@@ -566,40 +566,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Utah</t>
+          <t>Louisiana Tech</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cincinnati</t>
+          <t>Sam Houston</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.199999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="E3" t="n">
         <v>5.300000000000001</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Utah -7.0</t>
+          <t>Louisiana Tech -17.0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Utah -7.0</t>
+          <t>Louisiana Tech -17.0</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Utah -12.3</t>
+          <t>Louisiana Tech -22.3</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>12.3</v>
+        <v>22.3</v>
       </c>
       <c r="J3" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
@@ -616,40 +616,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Louisiana Tech</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sam Houston</t>
+          <t>Vanderbilt</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>5.300000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Louisiana Tech -17.0</t>
+          <t>Texas -3.0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Louisiana Tech -17.0</t>
+          <t>Texas -1.0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Louisiana Tech -22.3</t>
+          <t>Texas -6.2</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>22.3</v>
+        <v>6.2</v>
       </c>
       <c r="J4" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
@@ -716,40 +716,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Syracuse</t>
+          <t>Utah</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>North Carolina</t>
+          <t>Cincinnati</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>4.7</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Syracuse -2.0</t>
+          <t>Utah -7.0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Syracuse -2.5</t>
+          <t>Utah -7.5</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Syracuse -7.2</t>
+          <t>Utah -12.3</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>7.2</v>
+        <v>12.3</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -766,40 +766,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>UConn</t>
+          <t>Syracuse</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>UAB</t>
+          <t>North Carolina</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.6</v>
+        <v>6.9</v>
       </c>
       <c r="E7" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>UConn -11.5</t>
+          <t>Syracuse -2.0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>UConn -12.0</t>
+          <t>Syracuse -2.5</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>UConn -16.5</t>
+          <t>Syracuse -7.2</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>16.5</v>
+        <v>7.2</v>
       </c>
       <c r="J7" t="n">
-        <v>12</v>
+        <v>2.5</v>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
@@ -816,40 +816,40 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ohio State</t>
+          <t>UConn</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Penn State</t>
+          <t>UAB</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>9.300000000000001</v>
+        <v>4.6</v>
       </c>
       <c r="E8" t="n">
-        <v>4.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ohio State -21.0</t>
+          <t>UConn -11.5</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ohio State -20.5</t>
+          <t>UConn -12.0</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Ohio State -16.3</t>
+          <t>UConn -16.5</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="J8" t="n">
-        <v>20.5</v>
+        <v>12</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
@@ -866,40 +866,40 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Auburn</t>
+          <t>California</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Kentucky</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8.1</v>
+        <v>6.9</v>
       </c>
       <c r="E9" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Auburn -10.0</t>
+          <t>Virginia -4.5</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Auburn -10.0</t>
+          <t>Virginia -4.0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Auburn -13.9</t>
+          <t>Virginia -8.4</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>13.9</v>
+        <v>-8.4</v>
       </c>
       <c r="J9" t="n">
-        <v>10</v>
+        <v>-4</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
@@ -916,40 +916,40 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Ohio State</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Penn State</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>6.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>3.9</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Virginia -4.5</t>
+          <t>Ohio State -21.0</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Virginia -4.5</t>
+          <t>Ohio State -20.5</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Virginia -8.4</t>
+          <t>Ohio State -16.3</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>-8.4</v>
+        <v>16.3</v>
       </c>
       <c r="J10" t="n">
-        <v>-4.5</v>
+        <v>20.5</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
@@ -966,40 +966,40 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Baylor</t>
+          <t>Troy</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>UCF</t>
+          <t>Arkansas State</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8.9</v>
+        <v>5.6</v>
       </c>
       <c r="E11" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Baylor -4.5</t>
+          <t>Troy -8.0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Baylor -5.0</t>
+          <t>Troy -7.0</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Baylor -1.5</t>
+          <t>Troy -11.1</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1.5</v>
+        <v>11.1</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
@@ -1016,40 +1016,40 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Florida</t>
+          <t>Auburn</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Kentucky</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9.1</v>
+        <v>8.1</v>
       </c>
       <c r="E12" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Georgia -7.5</t>
+          <t>Auburn -10.0</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Georgia -7.5</t>
+          <t>Auburn -10.0</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Georgia -10.9</t>
+          <t>Auburn -13.9</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>-10.9</v>
+        <v>13.9</v>
       </c>
       <c r="J12" t="n">
-        <v>-7.5</v>
+        <v>10</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -1066,40 +1066,40 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t>North Texas</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Vanderbilt</t>
+          <t>Navy</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9.699999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Texas -3.0</t>
+          <t>North Texas -6.5</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Texas -3.0</t>
+          <t>North Texas -5.5</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Texas -6.2</t>
+          <t>North Texas -9.4</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>6.2</v>
+        <v>9.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
@@ -1116,40 +1116,40 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Michigan</t>
+          <t>Minnesota</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Purdue</t>
+          <t>Michigan State</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>8.1</v>
       </c>
       <c r="E14" t="n">
-        <v>3.100000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Michigan -21.0</t>
+          <t>Minnesota -4.0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Michigan -21.0</t>
+          <t>Minnesota -3.5</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Michigan -24.1</t>
+          <t>Minnesota -7.0</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>24.1</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
-        <v>21</v>
+        <v>3.5</v>
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
@@ -1166,40 +1166,40 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Troy</t>
+          <t>Baylor</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Arkansas State</t>
+          <t>UCF</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5.6</v>
+        <v>8.9</v>
       </c>
       <c r="E15" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Troy -8.0</t>
+          <t>Baylor -4.5</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Troy -8.0</t>
+          <t>Baylor -5.0</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Troy -11.1</t>
+          <t>Baylor -1.5</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>11.1</v>
+        <v>1.5</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
@@ -1216,40 +1216,40 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Western Kentucky</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>New Mexico State</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4.5</v>
+        <v>9.1</v>
       </c>
       <c r="E16" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Western Kentucky -8.5</t>
+          <t>Georgia -7.5</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Western Kentucky -8.5</t>
+          <t>Georgia -7.5</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Western Kentucky -11.6</t>
+          <t>Georgia -10.9</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>11.6</v>
+        <v>-10.9</v>
       </c>
       <c r="J16" t="n">
-        <v>8.5</v>
+        <v>-7.5</v>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
@@ -1266,40 +1266,40 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Minnesota</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Michigan State</t>
+          <t>Purdue</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8.1</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Minnesota -4.0</t>
+          <t>Michigan -21.0</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Minnesota -4.0</t>
+          <t>Michigan -21.0</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Minnesota -7.0</t>
+          <t>Michigan -24.1</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>7</v>
+        <v>24.1</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
@@ -1366,40 +1366,40 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>North Texas</t>
+          <t>Coastal Carolina</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Navy</t>
+          <t>Marshall</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8.300000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="E19" t="n">
         <v>2.9</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>North Texas -6.5</t>
+          <t>Marshall -4.0</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>North Texas -6.5</t>
+          <t>Marshall -4.0</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>North Texas -9.4</t>
+          <t>Marshall -6.9</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>9.4</v>
+        <v>-6.9</v>
       </c>
       <c r="J19" t="n">
-        <v>6.5</v>
+        <v>-4</v>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
@@ -1416,40 +1416,40 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Coastal Carolina</t>
+          <t>Virginia Tech</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Marshall</t>
+          <t>Louisville</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
       <c r="E20" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Marshall -4.0</t>
+          <t>Louisville -10.0</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Marshall -4.0</t>
+          <t>Louisville -10.0</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Marshall -6.9</t>
+          <t>Louisville -12.6</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>-6.9</v>
+        <v>-12.6</v>
       </c>
       <c r="J20" t="n">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
@@ -1466,40 +1466,40 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Virginia Tech</t>
+          <t>Ole Miss</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Louisville</t>
+          <t>South Carolina</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6.8</v>
+        <v>8.6</v>
       </c>
       <c r="E21" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Louisville -10.0</t>
+          <t>Ole Miss -13.5</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Louisville -10.0</t>
+          <t>Ole Miss -12.5</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Louisville -12.6</t>
+          <t>Ole Miss -15.0</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>-12.6</v>
+        <v>15</v>
       </c>
       <c r="J21" t="n">
-        <v>-10</v>
+        <v>12.5</v>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
@@ -1516,40 +1516,40 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>San Diego State</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Wyoming</t>
+          <t>Arizona</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>San Diego State -11.0</t>
+          <t>Arizona -4.5</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>San Diego State -11.0</t>
+          <t>Arizona -5.0</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>San Diego State -13.4</t>
+          <t>Arizona -2.5</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>13.4</v>
+        <v>-2.5</v>
       </c>
       <c r="J22" t="n">
-        <v>11</v>
+        <v>-5</v>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
@@ -1566,40 +1566,40 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Kennesaw State</t>
+          <t>San Diego State</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>UTEP</t>
+          <t>Wyoming</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="E23" t="n">
-        <v>2.300000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kennesaw State -9.5</t>
+          <t>San Diego State -11.0</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Kennesaw State -10.0</t>
+          <t>San Diego State -11.0</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Kennesaw State -12.3</t>
+          <t>San Diego State -13.4</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>12.3</v>
+        <v>13.4</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
@@ -1616,37 +1616,37 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Kansas State</t>
+          <t>Nebraska</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Texas Tech</t>
+          <t>USC</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>2.300000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Texas Tech -7.0</t>
+          <t>USC -6.0</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Texas Tech -7.0</t>
+          <t>USC -7.0</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Texas Tech -9.3</t>
+          <t>USC -4.6</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>-9.300000000000001</v>
+        <v>-4.6</v>
       </c>
       <c r="J24" t="n">
         <v>-7</v>
@@ -1666,40 +1666,40 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tennessee</t>
+          <t>Kennesaw State</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Oklahoma</t>
+          <t>UTEP</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>9.699999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="E25" t="n">
-        <v>2.3</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tennessee -3.5</t>
+          <t>Kennesaw State -9.5</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tennessee -3.5</t>
+          <t>Kennesaw State -10.0</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Tennessee -1.2</t>
+          <t>Kennesaw State -12.3</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1.2</v>
+        <v>12.3</v>
       </c>
       <c r="J25" t="n">
-        <v>3.5</v>
+        <v>10</v>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
@@ -1716,40 +1716,40 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>UL Monroe</t>
+          <t>Tennessee</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Old Dominion</t>
+          <t>Oklahoma</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>2.199999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Old Dominion -15.0</t>
+          <t>Tennessee -3.5</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Old Dominion -15.0</t>
+          <t>Tennessee -3.5</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Old Dominion -17.2</t>
+          <t>Tennessee -1.2</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>-17.2</v>
+        <v>1.2</v>
       </c>
       <c r="J26" t="n">
-        <v>-15</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
@@ -1766,40 +1766,40 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Kansas</t>
+          <t>Boise State</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Oklahoma State</t>
+          <t>Fresno State</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3.2</v>
+        <v>5.4</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kansas -24.5</t>
+          <t>Boise State -18.5</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Kansas -24.5</t>
+          <t>Boise State -17.5</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Kansas -26.5</t>
+          <t>Boise State -19.7</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>26.5</v>
+        <v>19.7</v>
       </c>
       <c r="J27" t="n">
-        <v>24.5</v>
+        <v>17.5</v>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -1816,40 +1816,40 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Colorado</t>
+          <t>Western Kentucky</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Arizona</t>
+          <t>New Mexico State</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>8.300000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Arizona -4.5</t>
+          <t>Western Kentucky -8.5</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Arizona -4.5</t>
+          <t>Western Kentucky -9.5</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Arizona -2.5</t>
+          <t>Western Kentucky -11.6</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>-2.5</v>
+        <v>11.6</v>
       </c>
       <c r="J28" t="n">
-        <v>-4.5</v>
+        <v>9.5</v>
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -1866,40 +1866,40 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Iowa State</t>
+          <t>Western Michigan</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Arizona State</t>
+          <t>Central Michigan</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>6.3</v>
       </c>
       <c r="E29" t="n">
         <v>2</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Iowa State -4.0</t>
+          <t>Western Michigan -5.5</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Iowa State -4.0</t>
+          <t>Western Michigan -4.5</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Iowa State -6.0</t>
+          <t>Western Michigan -6.5</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
@@ -1966,40 +1966,40 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Boston College</t>
+          <t>SMU</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Notre Dame</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>4.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>1.800000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Notre Dame -28.5</t>
+          <t>Miami -10.5</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Notre Dame -28.5</t>
+          <t>Miami -11.0</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Notre Dame -30.3</t>
+          <t>Miami -9.1</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>-30.3</v>
+        <v>-9.1</v>
       </c>
       <c r="J31" t="n">
-        <v>-28.5</v>
+        <v>-11</v>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
@@ -2016,40 +2016,40 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Oregon State</t>
+          <t>Kansas State</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Washington State</t>
+          <t>Texas Tech</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>5.9</v>
+        <v>8.9</v>
       </c>
       <c r="E32" t="n">
-        <v>1.8</v>
+        <v>1.800000000000001</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Washington State -4.5</t>
+          <t>Texas Tech -7.0</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Washington State -4.0</t>
+          <t>Texas Tech -7.5</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Washington State -5.8</t>
+          <t>Texas Tech -9.3</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>-5.8</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="J32" t="n">
-        <v>-4</v>
+        <v>-7.5</v>
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
@@ -2066,40 +2066,40 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Middle Tennessee</t>
+          <t>Boston College</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Jacksonville State</t>
+          <t>Notre Dame</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="E33" t="n">
-        <v>1.6</v>
+        <v>1.800000000000001</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Jacksonville State -6.5</t>
+          <t>Notre Dame -28.5</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Jacksonville State -6.0</t>
+          <t>Notre Dame -28.5</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Jacksonville State -7.6</t>
+          <t>Notre Dame -30.3</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>-7.6</v>
+        <v>-30.3</v>
       </c>
       <c r="J33" t="n">
-        <v>-6</v>
+        <v>-28.5</v>
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
@@ -2116,40 +2116,40 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ole Miss</t>
+          <t>Oregon State</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>South Carolina</t>
+          <t>Washington State</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>8.6</v>
+        <v>5.9</v>
       </c>
       <c r="E34" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ole Miss -13.5</t>
+          <t>Washington State -4.5</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Ole Miss -13.5</t>
+          <t>Washington State -4.0</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Ole Miss -15.0</t>
+          <t>Washington State -5.8</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>15</v>
+        <v>-5.8</v>
       </c>
       <c r="J34" t="n">
-        <v>13.5</v>
+        <v>-4</v>
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
@@ -2166,37 +2166,37 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Nebraska</t>
+          <t>Middle Tennessee</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>USC</t>
+          <t>Jacksonville State</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>9.300000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="E35" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>USC -6.0</t>
+          <t>Jacksonville State -6.5</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>USC -6.0</t>
+          <t>Jacksonville State -6.0</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>USC -4.6</t>
+          <t>Jacksonville State -7.6</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>-4.6</v>
+        <v>-7.6</v>
       </c>
       <c r="J35" t="n">
         <v>-6</v>
@@ -2216,40 +2216,40 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NC State</t>
+          <t>Kansas</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Georgia Tech</t>
+          <t>Oklahoma State</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>8.1</v>
+        <v>3.2</v>
       </c>
       <c r="E36" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Georgia Tech -6.5</t>
+          <t>Kansas -24.5</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Georgia Tech -6.5</t>
+          <t>Kansas -25.0</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Georgia Tech -7.7</t>
+          <t>Kansas -26.5</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>-7.7</v>
+        <v>26.5</v>
       </c>
       <c r="J36" t="n">
-        <v>-6.5</v>
+        <v>25</v>
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
@@ -2266,40 +2266,40 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Boise State</t>
+          <t>South Alabama</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Fresno State</t>
+          <t>Louisiana</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="E37" t="n">
-        <v>1.199999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Boise State -18.5</t>
+          <t>South Alabama -4.0</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Boise State -18.5</t>
+          <t>South Alabama -3.5</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Boise State -19.7</t>
+          <t>South Alabama -4.8</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>19.7</v>
+        <v>4.8</v>
       </c>
       <c r="J37" t="n">
-        <v>18.5</v>
+        <v>3.5</v>
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
@@ -2316,40 +2316,40 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Liberty</t>
+          <t>NC State</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Delaware</t>
+          <t>Georgia Tech</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="E38" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Liberty -3.0</t>
+          <t>Georgia Tech -6.5</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Liberty -3.0</t>
+          <t>Georgia Tech -6.5</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Liberty -4.1</t>
+          <t>Georgia Tech -7.7</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>4.1</v>
+        <v>-7.7</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>-6.5</v>
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
@@ -2366,40 +2366,40 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Western Michigan</t>
+          <t>Houston</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Central Michigan</t>
+          <t>West Virginia</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Western Michigan -5.5</t>
+          <t>Houston -14.5</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Western Michigan -5.5</t>
+          <t>Houston -14.0</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Western Michigan -6.5</t>
+          <t>Houston -15.1</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>6.5</v>
+        <v>15.1</v>
       </c>
       <c r="J39" t="n">
-        <v>5.5</v>
+        <v>14</v>
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
@@ -2416,40 +2416,40 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>UNLV</t>
+          <t>Clemson</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>New Mexico</t>
+          <t>Duke</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>UNLV -5.0</t>
+          <t>Clemson -3.5</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>UNLV -5.0</t>
+          <t>Clemson -3.5</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>UNLV -6.0</t>
+          <t>Clemson -4.5</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
@@ -2466,40 +2466,40 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Clemson</t>
+          <t>San José State</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Duke</t>
+          <t>Hawai'i</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>9.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Clemson -3.5</t>
+          <t>San José State -2.5</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Clemson -3.5</t>
+          <t>San José State -2.5</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Clemson -4.5</t>
+          <t>San José State -1.5</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="J41" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
@@ -2516,40 +2516,40 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>San José State</t>
+          <t>UTSA</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Hawai'i</t>
+          <t>Tulane</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>San José State -2.5</t>
+          <t>Tulane -4.0</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>San José State -2.5</t>
+          <t>Tulane -4.0</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>San José State -1.5</t>
+          <t>Tulane -3.0</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1.5</v>
+        <v>-3</v>
       </c>
       <c r="J42" t="n">
-        <v>2.5</v>
+        <v>-4</v>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
@@ -2566,40 +2566,40 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>UTSA</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Tulane</t>
+          <t>Rutgers</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tulane -4.0</t>
+          <t>Illinois -13.0</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Tulane -4.0</t>
+          <t>Illinois -12.0</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Tulane -3.0</t>
+          <t>Illinois -12.8</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>-3</v>
+        <v>12.8</v>
       </c>
       <c r="J43" t="n">
-        <v>-4</v>
+        <v>12</v>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
@@ -2616,40 +2616,40 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>South Alabama</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Louisiana</t>
+          <t>Indiana</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7999999999999998</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>South Alabama -4.0</t>
+          <t>Indiana -21.0</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>South Alabama -4.0</t>
+          <t>Indiana -21.0</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>South Alabama -4.8</t>
+          <t>Indiana -20.3</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>4.8</v>
+        <v>-20.3</v>
       </c>
       <c r="J44" t="n">
-        <v>4</v>
+        <v>-21</v>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
@@ -2666,40 +2666,40 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Texas State</t>
+          <t>Liberty</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>James Madison</t>
+          <t>Delaware</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7000000000000002</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>James Madison -6.0</t>
+          <t>Liberty -3.0</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>James Madison -6.0</t>
+          <t>Liberty -3.5</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>James Madison -6.7</t>
+          <t>Liberty -4.1</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>-6.7</v>
+        <v>4.1</v>
       </c>
       <c r="J45" t="n">
-        <v>-6</v>
+        <v>3.5</v>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
@@ -2716,40 +2716,40 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Maryland</t>
+          <t>UNLV</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Indiana</t>
+          <t>New Mexico</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6999999999999993</v>
+        <v>0.5</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Indiana -21.0</t>
+          <t>UNLV -5.0</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Indiana -21.0</t>
+          <t>UNLV -5.5</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Indiana -20.3</t>
+          <t>UNLV -6.0</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>-20.3</v>
+        <v>6</v>
       </c>
       <c r="J46" t="n">
-        <v>-21</v>
+        <v>5.5</v>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
@@ -2766,40 +2766,40 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Iowa State</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>West Virginia</t>
+          <t>Arizona State</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Houston -14.5</t>
+          <t>Iowa State -4.0</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Houston -14.5</t>
+          <t>Iowa State -5.5</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Houston -15.1</t>
+          <t>Iowa State -6.0</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>15.1</v>
+        <v>6</v>
       </c>
       <c r="J47" t="n">
-        <v>14.5</v>
+        <v>5.5</v>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
@@ -2866,40 +2866,40 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SMU</t>
+          <t>Arkansas</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Mississippi State</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>8.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E49" t="n">
         <v>0.4000000000000004</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Miami -10.5</t>
+          <t>Arkansas -4.5</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Miami -9.5</t>
+          <t>Arkansas -4.0</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Miami -9.1</t>
+          <t>Arkansas -4.4</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>-9.1</v>
+        <v>4.4</v>
       </c>
       <c r="J49" t="n">
-        <v>-9.5</v>
+        <v>4</v>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
@@ -2916,40 +2916,40 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Temple</t>
+          <t>Bowling Green</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>East Carolina</t>
+          <t>Buffalo</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>7.2</v>
+        <v>6.1</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2000000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>East Carolina -4.5</t>
+          <t>Bowling Green -2.0</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>East Carolina -4.5</t>
+          <t>Bowling Green -2.0</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>East Carolina -4.7</t>
+          <t>Bowling Green -1.7</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>-4.7</v>
+        <v>1.7</v>
       </c>
       <c r="J50" t="n">
-        <v>-4.5</v>
+        <v>2</v>
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
@@ -2966,40 +2966,40 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Bowling Green</t>
+          <t>Texas State</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Buffalo</t>
+          <t>James Madison</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bowling Green -2.0</t>
+          <t>James Madison -6.0</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Bowling Green -1.5</t>
+          <t>James Madison -6.5</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Bowling Green -1.7</t>
+          <t>James Madison -6.7</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1.7</v>
+        <v>-6.7</v>
       </c>
       <c r="J51" t="n">
-        <v>1.5</v>
+        <v>-6.5</v>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
@@ -3016,40 +3016,40 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Illinois</t>
+          <t>Temple</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Rutgers</t>
+          <t>East Carolina</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>8.1</v>
+        <v>7.2</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1999999999999993</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Illinois -13.0</t>
+          <t>East Carolina -4.5</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Illinois -13.0</t>
+          <t>East Carolina -4.5</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Illinois -12.8</t>
+          <t>East Carolina -4.7</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>12.8</v>
+        <v>-4.7</v>
       </c>
       <c r="J52" t="n">
-        <v>13</v>
+        <v>-4.5</v>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
@@ -3066,40 +3066,40 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Arkansas</t>
+          <t>UL Monroe</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Mississippi State</t>
+          <t>Old Dominion</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>9.300000000000001</v>
+        <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>0.09999999999999964</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Arkansas -4.5</t>
+          <t>Old Dominion -15.0</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Arkansas -4.5</t>
+          <t>Old Dominion -17.0</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Arkansas -4.4</t>
+          <t>Old Dominion -17.2</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>4.4</v>
+        <v>-17.2</v>
       </c>
       <c r="J53" t="n">
-        <v>4.5</v>
+        <v>-17</v>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>

--- a/PEAR/PEAR Football/y2025/Spreads/spreads_tracker_week10.xlsx
+++ b/PEAR/PEAR Football/y2025/Spreads/spreads_tracker_week10.xlsx
@@ -641,7 +641,7 @@
         <v>2.5</v>
       </c>
       <c r="J3" t="n">
-        <v>5.300000000000001</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Louisiana Tech -17.0</t>
+          <t>Louisiana Tech -16.5</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -662,7 +662,7 @@
         <v>22.3</v>
       </c>
       <c r="O3" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -754,49 +754,49 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>UConn</t>
+          <t>Ohio State</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>UAB</t>
+          <t>Penn State</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>40.2</v>
+        <v>33</v>
       </c>
       <c r="G5" t="n">
-        <v>23.6</v>
+        <v>16.6</v>
       </c>
       <c r="H5" t="n">
-        <v>83.29000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>4.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>4.699999999999999</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>UConn -11.5</t>
+          <t>Ohio State -21.0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>UConn -12.0</t>
+          <t>Ohio State -21.0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>UConn -16.5</t>
+          <t>Ohio State -16.3</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="O5" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -821,49 +821,49 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ohio State</t>
+          <t>UConn</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Penn State</t>
+          <t>UAB</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>33</v>
+        <v>40.2</v>
       </c>
       <c r="G6" t="n">
-        <v>16.6</v>
+        <v>23.6</v>
       </c>
       <c r="H6" t="n">
-        <v>83.59999999999999</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>9.300000000000001</v>
+        <v>4.6</v>
       </c>
       <c r="J6" t="n">
-        <v>4.199999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Ohio State -21.0</t>
+          <t>UConn -11.5</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Ohio State -20.5</t>
+          <t>UConn -12.0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Ohio State -16.3</t>
+          <t>UConn -16.5</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="O6" t="n">
-        <v>20.5</v>
+        <v>12</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -883,54 +883,54 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>2:45 PM</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Troy</t>
+          <t>California</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Arkansas State</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>33.6</v>
+        <v>21.8</v>
       </c>
       <c r="G7" t="n">
-        <v>22.6</v>
+        <v>30.2</v>
       </c>
       <c r="H7" t="n">
-        <v>73.31999999999999</v>
+        <v>25.81</v>
       </c>
       <c r="I7" t="n">
-        <v>5.6</v>
+        <v>6.9</v>
       </c>
       <c r="J7" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Troy -8.0</t>
+          <t>Virginia -4.5</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Troy -7.0</t>
+          <t>Virginia -4.5</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Troy -11.1</t>
+          <t>Virginia -8.4</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>11.1</v>
+        <v>-8.4</v>
       </c>
       <c r="O7" t="n">
-        <v>7</v>
+        <v>-4.5</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -950,54 +950,54 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>6:30 PM</t>
+          <t>2:30 PM</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Auburn</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Kentucky</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>30.9</v>
+        <v>20.2</v>
       </c>
       <c r="G8" t="n">
-        <v>17</v>
+        <v>31.1</v>
       </c>
       <c r="H8" t="n">
-        <v>79.19</v>
+        <v>24.33</v>
       </c>
       <c r="I8" t="n">
-        <v>8.1</v>
+        <v>9.1</v>
       </c>
       <c r="J8" t="n">
         <v>3.9</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Auburn -10.0</t>
+          <t>Georgia -7.5</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Auburn -10.0</t>
+          <t>Georgia -7.0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Auburn -13.9</t>
+          <t>Georgia -10.9</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>13.9</v>
+        <v>-10.9</v>
       </c>
       <c r="O8" t="n">
-        <v>10</v>
+        <v>-7</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -1017,54 +1017,54 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2:45 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Vanderbilt</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>21.8</v>
+        <v>27.7</v>
       </c>
       <c r="G9" t="n">
-        <v>30.2</v>
+        <v>21.5</v>
       </c>
       <c r="H9" t="n">
-        <v>25.81</v>
+        <v>61.85</v>
       </c>
       <c r="I9" t="n">
-        <v>6.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Virginia -4.5</t>
+          <t>Texas -3.0</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Virginia -4.5</t>
+          <t>Texas -2.5</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Virginia -8.4</t>
+          <t>Texas -6.2</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>-8.4</v>
+        <v>6.2</v>
       </c>
       <c r="O9" t="n">
-        <v>-4.5</v>
+        <v>2.5</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
@@ -1084,54 +1084,54 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2:30 PM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Florida</t>
+          <t>Troy</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Arkansas State</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>20.2</v>
+        <v>33.6</v>
       </c>
       <c r="G10" t="n">
-        <v>31.1</v>
+        <v>22.6</v>
       </c>
       <c r="H10" t="n">
-        <v>24.33</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>9.1</v>
+        <v>5.6</v>
       </c>
       <c r="J10" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Georgia -7.5</t>
+          <t>Troy -8.0</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Georgia -7.0</t>
+          <t>Troy -7.5</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Georgia -10.9</t>
+          <t>Troy -11.1</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>-10.9</v>
+        <v>11.1</v>
       </c>
       <c r="O10" t="n">
-        <v>-7</v>
+        <v>7.5</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
@@ -1151,54 +1151,54 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>2:30 PM</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t>Western Kentucky</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Vanderbilt</t>
+          <t>New Mexico State</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>27.7</v>
+        <v>30.9</v>
       </c>
       <c r="G11" t="n">
-        <v>21.5</v>
+        <v>19.3</v>
       </c>
       <c r="H11" t="n">
-        <v>61.85</v>
+        <v>74.83</v>
       </c>
       <c r="I11" t="n">
-        <v>9.699999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Texas -3.0</t>
+          <t>Western Kentucky -8.5</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Texas -2.5</t>
+          <t>Western Kentucky -8.0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Texas -6.2</t>
+          <t>Western Kentucky -11.6</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>6.2</v>
+        <v>11.6</v>
       </c>
       <c r="O11" t="n">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1352,54 +1352,54 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>San Diego State</t>
+          <t>SMU</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Wyoming</t>
+          <t>Miami</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>28.8</v>
+        <v>22.6</v>
       </c>
       <c r="G14" t="n">
-        <v>15.4</v>
+        <v>31.7</v>
       </c>
       <c r="H14" t="n">
-        <v>78.44</v>
+        <v>24.13</v>
       </c>
       <c r="I14" t="n">
-        <v>6.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J14" t="n">
         <v>3.4</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>San Diego State -11.0</t>
+          <t>Miami -10.5</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>San Diego State -10.0</t>
+          <t>Miami -12.5</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>San Diego State -13.4</t>
+          <t>Miami -9.1</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>13.4</v>
+        <v>-9.1</v>
       </c>
       <c r="O14" t="n">
-        <v>10</v>
+        <v>-12.5</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -1415,66 +1415,78 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45962</v>
+        <v>45959</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>9:15 PM</t>
+          <t>6:30 PM</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Utah</t>
+          <t>Middle Tennessee</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cincinnati</t>
+          <t>Jacksonville State</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>32.4</v>
+        <v>23.1</v>
       </c>
       <c r="G15" t="n">
-        <v>20.2</v>
+        <v>30.7</v>
       </c>
       <c r="H15" t="n">
-        <v>75.87</v>
+        <v>28.25</v>
       </c>
       <c r="I15" t="n">
-        <v>9.199999999999999</v>
+        <v>3.8</v>
       </c>
       <c r="J15" t="n">
-        <v>3.300000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Utah -7.0</t>
+          <t>Jacksonville State -6.5</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Utah -9.0</t>
+          <t>Jacksonville State -4.5</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Utah -12.3</t>
+          <t>Jacksonville State -7.6</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>12.3</v>
+        <v>-7.6</v>
       </c>
       <c r="O15" t="n">
-        <v>9</v>
-      </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
+        <v>-4.5</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-3</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Jacksonville State -3.0</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1</v>
+      </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1482,58 +1494,58 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45962</v>
+        <v>45960</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>6:30 PM</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Michigan</t>
+          <t>UTSA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Purdue</t>
+          <t>Tulane</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>37</v>
+        <v>28.4</v>
       </c>
       <c r="G16" t="n">
-        <v>13</v>
+        <v>31.4</v>
       </c>
       <c r="H16" t="n">
-        <v>91.95999999999999</v>
+        <v>38.42</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>7.7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.100000000000001</v>
+        <v>3</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Michigan -21.0</t>
+          <t>Tulane -4.0</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Michigan -21.0</t>
+          <t>Tulane -6.0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Michigan -24.1</t>
+          <t>Tulane -3.0</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>24.1</v>
+        <v>-3</v>
       </c>
       <c r="O16" t="n">
-        <v>21</v>
+        <v>-6</v>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1553,54 +1565,54 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>6:30 PM</t>
+          <t>2:30 PM</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Florida State</t>
+          <t>Stanford</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Wake Forest</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>30.2</v>
+        <v>18</v>
       </c>
       <c r="G17" t="n">
-        <v>17.8</v>
+        <v>35</v>
       </c>
       <c r="H17" t="n">
-        <v>77.08</v>
+        <v>12.05</v>
       </c>
       <c r="I17" t="n">
-        <v>8.1</v>
+        <v>5.1</v>
       </c>
       <c r="J17" t="n">
         <v>3</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Florida State -7.5</t>
+          <t>Pittsburgh -14.0</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Florida State -9.5</t>
+          <t>Pittsburgh -14.0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Florida State -12.5</t>
+          <t>Pittsburgh -17.0</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>12.5</v>
+        <v>-17</v>
       </c>
       <c r="O17" t="n">
-        <v>9.5</v>
+        <v>-14</v>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
@@ -1620,54 +1632,54 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2:30 PM</t>
+          <t>6:30 PM</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Stanford</t>
+          <t>Auburn</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>Kentucky</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>18</v>
+        <v>30.9</v>
       </c>
       <c r="G18" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H18" t="n">
-        <v>12.05</v>
+        <v>79.19</v>
       </c>
       <c r="I18" t="n">
-        <v>5.1</v>
+        <v>8.1</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Pittsburgh -14.0</t>
+          <t>Auburn -10.0</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Pittsburgh -14.0</t>
+          <t>Auburn -11.0</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Pittsburgh -17.0</t>
+          <t>Auburn -13.9</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>-17</v>
+        <v>13.9</v>
       </c>
       <c r="O18" t="n">
-        <v>-14</v>
+        <v>11</v>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
@@ -1687,54 +1699,54 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>North Texas</t>
+          <t>San Diego State</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Navy</t>
+          <t>Wyoming</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>38.6</v>
+        <v>28.8</v>
       </c>
       <c r="G19" t="n">
-        <v>29.2</v>
+        <v>15.4</v>
       </c>
       <c r="H19" t="n">
-        <v>69.90000000000001</v>
+        <v>78.44</v>
       </c>
       <c r="I19" t="n">
-        <v>8.300000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="J19" t="n">
         <v>2.9</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>North Texas -6.5</t>
+          <t>San Diego State -11.0</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>North Texas -6.5</t>
+          <t>San Diego State -10.5</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>North Texas -9.4</t>
+          <t>San Diego State -13.4</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>9.4</v>
+        <v>13.4</v>
       </c>
       <c r="O19" t="n">
-        <v>6.5</v>
+        <v>10.5</v>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
@@ -1759,49 +1771,49 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SMU</t>
+          <t>North Texas</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Navy</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>22.6</v>
+        <v>38.6</v>
       </c>
       <c r="G20" t="n">
-        <v>31.7</v>
+        <v>29.2</v>
       </c>
       <c r="H20" t="n">
-        <v>24.13</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>8.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J20" t="n">
         <v>2.9</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Miami -10.5</t>
+          <t>North Texas -6.5</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Miami -12.0</t>
+          <t>North Texas -6.5</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Miami -9.1</t>
+          <t>North Texas -9.4</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>-9.1</v>
+        <v>9.4</v>
       </c>
       <c r="O20" t="n">
-        <v>-12</v>
+        <v>6.5</v>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
@@ -1817,64 +1829,76 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45962</v>
+        <v>45959</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2:30 PM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Boise State</t>
+          <t>Missouri State</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Fresno State</t>
+          <t>Florida International</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>36.6</v>
+        <v>30.2</v>
       </c>
       <c r="G21" t="n">
-        <v>17</v>
+        <v>24.2</v>
       </c>
       <c r="H21" t="n">
-        <v>87.59</v>
+        <v>61.31</v>
       </c>
       <c r="I21" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.699999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Boise State -18.5</t>
+          <t>Missouri State -4.0</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Boise State -17.0</t>
+          <t>Missouri State -3.0</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Boise State -19.7</t>
+          <t>Missouri State -5.9</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>19.7</v>
+        <v>5.9</v>
       </c>
       <c r="O21" t="n">
-        <v>17</v>
-      </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="P21" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Missouri State -7.0</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
@@ -1893,49 +1917,49 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Western Kentucky</t>
+          <t>Boise State</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>New Mexico State</t>
+          <t>Fresno State</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>30.9</v>
+        <v>36.6</v>
       </c>
       <c r="G22" t="n">
-        <v>19.3</v>
+        <v>17</v>
       </c>
       <c r="H22" t="n">
-        <v>74.83</v>
+        <v>87.59</v>
       </c>
       <c r="I22" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="J22" t="n">
-        <v>2.6</v>
+        <v>2.699999999999999</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Western Kentucky -8.5</t>
+          <t>Boise State -18.5</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Western Kentucky -9.0</t>
+          <t>Boise State -17.0</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Western Kentucky -11.6</t>
+          <t>Boise State -19.7</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>11.6</v>
+        <v>19.7</v>
       </c>
       <c r="O22" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
@@ -1955,54 +1979,54 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2:00 PM</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Virginia Tech</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Louisville</t>
+          <t>Purdue</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>20.8</v>
+        <v>37</v>
       </c>
       <c r="G23" t="n">
-        <v>33.4</v>
+        <v>13</v>
       </c>
       <c r="H23" t="n">
-        <v>18.17</v>
+        <v>91.95999999999999</v>
       </c>
       <c r="I23" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>2.6</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Louisville -10.0</t>
+          <t>Michigan -21.0</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Louisville -10.0</t>
+          <t>Michigan -21.5</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Louisville -12.6</t>
+          <t>Michigan -24.1</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>-12.6</v>
+        <v>24.1</v>
       </c>
       <c r="O23" t="n">
-        <v>-10</v>
+        <v>21.5</v>
       </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -2018,58 +2042,58 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45959</v>
+        <v>45962</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>6:30 PM</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Middle Tennessee</t>
+          <t>Ole Miss</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Jacksonville State</t>
+          <t>South Carolina</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>23.1</v>
+        <v>32.8</v>
       </c>
       <c r="G24" t="n">
-        <v>30.7</v>
+        <v>17.8</v>
       </c>
       <c r="H24" t="n">
-        <v>28.25</v>
+        <v>80.81</v>
       </c>
       <c r="I24" t="n">
-        <v>3.8</v>
+        <v>8.6</v>
       </c>
       <c r="J24" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Jacksonville State -6.5</t>
+          <t>Ole Miss -13.5</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Jacksonville State -5.0</t>
+          <t>Ole Miss -12.5</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Jacksonville State -7.6</t>
+          <t>Ole Miss -15.0</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>-7.6</v>
+        <v>15</v>
       </c>
       <c r="O24" t="n">
-        <v>-5</v>
+        <v>12.5</v>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
@@ -2089,54 +2113,54 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>3:00 PM</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Ole Miss</t>
+          <t>Western Michigan</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>South Carolina</t>
+          <t>Central Michigan</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>32.8</v>
+        <v>26.2</v>
       </c>
       <c r="G25" t="n">
-        <v>17.8</v>
+        <v>19.6</v>
       </c>
       <c r="H25" t="n">
-        <v>80.81</v>
+        <v>62.64</v>
       </c>
       <c r="I25" t="n">
-        <v>8.6</v>
+        <v>6.3</v>
       </c>
       <c r="J25" t="n">
         <v>2.5</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Ole Miss -13.5</t>
+          <t>Western Michigan -5.5</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Ole Miss -12.5</t>
+          <t>Western Michigan -4.0</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Ole Miss -15.0</t>
+          <t>Western Michigan -6.5</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="O25" t="n">
-        <v>12.5</v>
+        <v>4</v>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
@@ -2223,54 +2247,54 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>6:30 PM</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Air Force</t>
+          <t>Florida State</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Army</t>
+          <t>Wake Forest</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>29.4</v>
+        <v>30.2</v>
       </c>
       <c r="G27" t="n">
-        <v>30.9</v>
+        <v>17.8</v>
       </c>
       <c r="H27" t="n">
-        <v>43.03</v>
+        <v>77.08</v>
       </c>
       <c r="I27" t="n">
-        <v>7</v>
+        <v>8.1</v>
       </c>
       <c r="J27" t="n">
         <v>2.5</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Army -1.0</t>
+          <t>Florida State -7.5</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Air Force -1.0</t>
+          <t>Florida State -10.0</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Army -1.5</t>
+          <t>Florida State -12.5</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>-1.5</v>
+        <v>12.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
@@ -2290,54 +2314,54 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2:30 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Kansas State</t>
+          <t>Air Force</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Texas Tech</t>
+          <t>Army</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>22.5</v>
+        <v>29.4</v>
       </c>
       <c r="G28" t="n">
-        <v>31.8</v>
+        <v>30.9</v>
       </c>
       <c r="H28" t="n">
-        <v>23.52</v>
+        <v>43.03</v>
       </c>
       <c r="I28" t="n">
-        <v>8.9</v>
+        <v>7</v>
       </c>
       <c r="J28" t="n">
-        <v>2.300000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Texas Tech -7.0</t>
+          <t>Army -1.0</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Texas Tech -7.0</t>
+          <t>Air Force -1.0</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Texas Tech -9.3</t>
+          <t>Army -1.5</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>-9.300000000000001</v>
+        <v>-1.5</v>
       </c>
       <c r="O28" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
@@ -2357,54 +2381,54 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>6:30 PM</t>
+          <t>9:15 PM</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Oregon State</t>
+          <t>Utah</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Washington State</t>
+          <t>Cincinnati</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>24.1</v>
+        <v>32.4</v>
       </c>
       <c r="G29" t="n">
-        <v>29.9</v>
+        <v>20.2</v>
       </c>
       <c r="H29" t="n">
-        <v>31.78</v>
+        <v>75.87</v>
       </c>
       <c r="I29" t="n">
-        <v>5.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>2.3</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Washington State -4.5</t>
+          <t>Utah -7.0</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Washington State -3.5</t>
+          <t>Utah -10.0</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Washington State -5.8</t>
+          <t>Utah -12.3</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>-5.8</v>
+        <v>12.3</v>
       </c>
       <c r="O29" t="n">
-        <v>-3.5</v>
+        <v>10</v>
       </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
@@ -2558,54 +2582,54 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3:00 PM</t>
+          <t>2:00 PM</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Kansas</t>
+          <t>Virginia Tech</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Oklahoma State</t>
+          <t>Louisville</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>41.8</v>
+        <v>20.8</v>
       </c>
       <c r="G32" t="n">
-        <v>15.4</v>
+        <v>33.4</v>
       </c>
       <c r="H32" t="n">
-        <v>93.73999999999999</v>
+        <v>18.17</v>
       </c>
       <c r="I32" t="n">
-        <v>3.2</v>
+        <v>6.8</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Kansas -24.5</t>
+          <t>Louisville -10.0</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Kansas -24.5</t>
+          <t>Louisville -10.5</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Kansas -26.5</t>
+          <t>Louisville -12.6</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>26.5</v>
+        <v>-12.6</v>
       </c>
       <c r="O32" t="n">
-        <v>24.5</v>
+        <v>-10.5</v>
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
@@ -2625,54 +2649,54 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2:30 PM</t>
+          <t>3:00 PM</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Boston College</t>
+          <t>Kansas</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Notre Dame</t>
+          <t>Oklahoma State</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>14.2</v>
+        <v>41.8</v>
       </c>
       <c r="G33" t="n">
-        <v>44.4</v>
+        <v>15.4</v>
       </c>
       <c r="H33" t="n">
-        <v>3.05</v>
+        <v>93.73999999999999</v>
       </c>
       <c r="I33" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="J33" t="n">
-        <v>1.800000000000001</v>
+        <v>2</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Notre Dame -28.5</t>
+          <t>Kansas -24.5</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Notre Dame -28.5</t>
+          <t>Kansas -24.5</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Notre Dame -30.3</t>
+          <t>Kansas -26.5</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>-30.3</v>
+        <v>26.5</v>
       </c>
       <c r="O33" t="n">
-        <v>-28.5</v>
+        <v>24.5</v>
       </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
@@ -2692,54 +2716,54 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>6:30 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tennessee</t>
+          <t>Clemson</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Oklahoma</t>
+          <t>Duke</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>27.8</v>
+        <v>29.7</v>
       </c>
       <c r="G34" t="n">
-        <v>26.6</v>
+        <v>25.2</v>
       </c>
       <c r="H34" t="n">
-        <v>48.88</v>
+        <v>57.8</v>
       </c>
       <c r="I34" t="n">
-        <v>9.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Tennessee -3.5</t>
+          <t>Clemson -3.5</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Tennessee -3.0</t>
+          <t>Clemson -2.5</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Tennessee -1.2</t>
+          <t>Clemson -4.5</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="O34" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -2759,54 +2783,54 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>3:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Western Michigan</t>
+          <t>Iowa State</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Central Michigan</t>
+          <t>Arizona State</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>26.2</v>
+        <v>28.4</v>
       </c>
       <c r="G35" t="n">
-        <v>19.6</v>
+        <v>22.4</v>
       </c>
       <c r="H35" t="n">
-        <v>62.64</v>
+        <v>62.37</v>
       </c>
       <c r="I35" t="n">
-        <v>6.3</v>
+        <v>9</v>
       </c>
       <c r="J35" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Western Michigan -5.5</t>
+          <t>Iowa State -4.0</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Western Michigan -5.0</t>
+          <t>Iowa State -8.0</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Western Michigan -6.5</t>
+          <t>Iowa State -6.0</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O35" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -2826,54 +2850,54 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>6:30 PM</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Colorado</t>
+          <t>Nebraska</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Arizona</t>
+          <t>USC</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>26.2</v>
+        <v>26.8</v>
       </c>
       <c r="G36" t="n">
-        <v>28.7</v>
+        <v>31.4</v>
       </c>
       <c r="H36" t="n">
-        <v>38.69</v>
+        <v>35.03</v>
       </c>
       <c r="I36" t="n">
-        <v>8.300000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J36" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Arizona -4.5</t>
+          <t>USC -6.0</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Arizona -4.0</t>
+          <t>USC -6.5</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Arizona -2.5</t>
+          <t>USC -4.6</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>-2.5</v>
+        <v>-4.6</v>
       </c>
       <c r="O36" t="n">
-        <v>-4</v>
+        <v>-6.5</v>
       </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
@@ -2893,54 +2917,54 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>2:30 PM</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Iowa State</t>
+          <t>Kansas State</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Arizona State</t>
+          <t>Texas Tech</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>28.4</v>
+        <v>22.5</v>
       </c>
       <c r="G37" t="n">
-        <v>22.4</v>
+        <v>31.8</v>
       </c>
       <c r="H37" t="n">
-        <v>62.37</v>
+        <v>23.52</v>
       </c>
       <c r="I37" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="J37" t="n">
-        <v>1.5</v>
+        <v>1.800000000000001</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Iowa State -4.0</t>
+          <t>Texas Tech -7.0</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Iowa State -7.5</t>
+          <t>Texas Tech -7.5</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Iowa State -6.0</t>
+          <t>Texas Tech -9.3</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>6</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="O37" t="n">
-        <v>7.5</v>
+        <v>-7.5</v>
       </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
@@ -2956,58 +2980,58 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45959</v>
+        <v>45962</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>2:30 PM</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Missouri State</t>
+          <t>Boston College</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Florida International</t>
+          <t>Notre Dame</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>30.2</v>
+        <v>14.2</v>
       </c>
       <c r="G38" t="n">
-        <v>24.2</v>
+        <v>44.4</v>
       </c>
       <c r="H38" t="n">
-        <v>61.31</v>
+        <v>3.05</v>
       </c>
       <c r="I38" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="J38" t="n">
-        <v>1.4</v>
+        <v>1.800000000000001</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Missouri State -4.0</t>
+          <t>Notre Dame -28.5</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Missouri State -4.5</t>
+          <t>Notre Dame -28.5</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Missouri State -5.9</t>
+          <t>Notre Dame -30.3</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>5.9</v>
+        <v>-30.3</v>
       </c>
       <c r="O38" t="n">
-        <v>4.5</v>
+        <v>-28.5</v>
       </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
@@ -3032,49 +3056,49 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Nebraska</t>
+          <t>Tennessee</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>USC</t>
+          <t>Oklahoma</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>26.8</v>
+        <v>27.8</v>
       </c>
       <c r="G39" t="n">
-        <v>31.4</v>
+        <v>26.6</v>
       </c>
       <c r="H39" t="n">
-        <v>35.03</v>
+        <v>48.88</v>
       </c>
       <c r="I39" t="n">
-        <v>9.300000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J39" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>USC -6.0</t>
+          <t>Tennessee -3.5</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>USC -6.0</t>
+          <t>Tennessee -3.0</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>USC -4.6</t>
+          <t>Tennessee -1.2</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>-4.6</v>
+        <v>1.2</v>
       </c>
       <c r="O39" t="n">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
@@ -3090,7 +3114,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>45960</v>
+        <v>45962</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -3099,49 +3123,49 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Coastal Carolina</t>
+          <t>Oregon State</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Marshall</t>
+          <t>Washington State</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>26.5</v>
+        <v>24.1</v>
       </c>
       <c r="G40" t="n">
-        <v>33.4</v>
+        <v>29.9</v>
       </c>
       <c r="H40" t="n">
-        <v>29.87</v>
+        <v>31.78</v>
       </c>
       <c r="I40" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="J40" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Marshall -4.0</t>
+          <t>Washington State -4.5</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Marshall -5.5</t>
+          <t>Washington State -4.0</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Marshall -6.9</t>
+          <t>Washington State -5.8</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>-6.9</v>
+        <v>-5.8</v>
       </c>
       <c r="O40" t="n">
-        <v>-5.5</v>
+        <v>-4</v>
       </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
@@ -3161,54 +3185,54 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2:30 PM</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>South Alabama</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Louisiana</t>
+          <t>Arizona</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>31</v>
+        <v>26.2</v>
       </c>
       <c r="G41" t="n">
-        <v>26.2</v>
+        <v>28.7</v>
       </c>
       <c r="H41" t="n">
-        <v>58.62</v>
+        <v>38.69</v>
       </c>
       <c r="I41" t="n">
-        <v>6.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J41" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>South Alabama -4.0</t>
+          <t>Arizona -4.5</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>South Alabama -3.5</t>
+          <t>Arizona -4.0</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>South Alabama -4.8</t>
+          <t>Arizona -2.5</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4.8</v>
+        <v>-2.5</v>
       </c>
       <c r="O41" t="n">
-        <v>3.5</v>
+        <v>-4</v>
       </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
@@ -3358,64 +3382,76 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>45962</v>
+        <v>45958</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Clemson</t>
+          <t>Kennesaw State</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Duke</t>
+          <t>UTEP</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>29.7</v>
+        <v>28.6</v>
       </c>
       <c r="G44" t="n">
-        <v>25.2</v>
+        <v>16.2</v>
       </c>
       <c r="H44" t="n">
-        <v>57.8</v>
+        <v>76.28</v>
       </c>
       <c r="I44" t="n">
-        <v>9.199999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="J44" t="n">
+        <v>0.8000000000000007</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Kennesaw State -9.5</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Kennesaw State -11.5</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Kennesaw State -12.3</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="O44" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="P44" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Kennesaw State -13.0</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
         <v>1</v>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Clemson -3.5</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Clemson -3.5</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>Clemson -4.5</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O44" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1</v>
+      </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
@@ -3429,51 +3465,51 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>9:30 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>San José State</t>
+          <t>Bowling Green</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Hawai'i</t>
+          <t>Buffalo</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>27.8</v>
+        <v>23.5</v>
       </c>
       <c r="G45" t="n">
-        <v>26.2</v>
+        <v>21.8</v>
       </c>
       <c r="H45" t="n">
-        <v>49.72</v>
+        <v>50.56</v>
       </c>
       <c r="I45" t="n">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>San José State -2.5</t>
+          <t>Bowling Green -2.0</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>San José State -2.5</t>
+          <t>Bowling Green -2.5</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>San José State -1.5</t>
+          <t>Bowling Green -1.7</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="O45" t="n">
         <v>2.5</v>
@@ -3492,58 +3528,58 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45960</v>
+        <v>45962</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>6:30 PM</t>
+          <t>2:30 PM</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>UTSA</t>
+          <t>South Alabama</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Tulane</t>
+          <t>Louisiana</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>28.4</v>
+        <v>31</v>
       </c>
       <c r="G46" t="n">
-        <v>31.4</v>
+        <v>26.2</v>
       </c>
       <c r="H46" t="n">
-        <v>38.42</v>
+        <v>58.62</v>
       </c>
       <c r="I46" t="n">
-        <v>7.7</v>
+        <v>6.2</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Tulane -4.0</t>
+          <t>South Alabama -4.0</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Tulane -4.0</t>
+          <t>South Alabama -4.0</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Tulane -3.0</t>
+          <t>South Alabama -4.8</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>-3</v>
+        <v>4.8</v>
       </c>
       <c r="O46" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
@@ -3568,57 +3604,69 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Kennesaw State</t>
+          <t>Texas State</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>UTEP</t>
+          <t>James Madison</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>28.6</v>
+        <v>26.7</v>
       </c>
       <c r="G47" t="n">
-        <v>16.2</v>
+        <v>33.4</v>
       </c>
       <c r="H47" t="n">
-        <v>76.28</v>
+        <v>29.63</v>
       </c>
       <c r="I47" t="n">
-        <v>4.8</v>
+        <v>7</v>
       </c>
       <c r="J47" t="n">
-        <v>0.8000000000000007</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Kennesaw State -9.5</t>
+          <t>James Madison -6.0</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Kennesaw State -11.5</t>
+          <t>James Madison -7.5</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Kennesaw State -12.3</t>
+          <t>James Madison -6.7</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>12.3</v>
+        <v>-6.7</v>
       </c>
       <c r="O47" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
+        <v>-7.5</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-32</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>James Madison -32.0</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1</v>
+      </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -3626,58 +3674,58 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>45958</v>
+        <v>45962</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>9:30 PM</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Texas State</t>
+          <t>San José State</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>James Madison</t>
+          <t>Hawai'i</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>26.7</v>
+        <v>27.8</v>
       </c>
       <c r="G48" t="n">
-        <v>33.4</v>
+        <v>26.2</v>
       </c>
       <c r="H48" t="n">
-        <v>29.63</v>
+        <v>49.72</v>
       </c>
       <c r="I48" t="n">
         <v>7</v>
       </c>
       <c r="J48" t="n">
-        <v>0.7999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>James Madison -6.0</t>
+          <t>San José State -2.5</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>James Madison -7.5</t>
+          <t>San José State -1.0</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>James Madison -6.7</t>
+          <t>San José State -1.5</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>-6.7</v>
+        <v>1.5</v>
       </c>
       <c r="O48" t="n">
-        <v>-7.5</v>
+        <v>1</v>
       </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
@@ -3697,54 +3745,54 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>3:00 PM</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Illinois</t>
+          <t>Arkansas</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Rutgers</t>
+          <t>Mississippi State</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>37.8</v>
+        <v>34.2</v>
       </c>
       <c r="G49" t="n">
-        <v>25</v>
+        <v>29.8</v>
       </c>
       <c r="H49" t="n">
-        <v>77.48</v>
+        <v>57.25</v>
       </c>
       <c r="I49" t="n">
-        <v>8.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J49" t="n">
-        <v>0.3000000000000007</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Illinois -13.0</t>
+          <t>Arkansas -4.5</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Illinois -12.5</t>
+          <t>Arkansas -4.0</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Illinois -12.8</t>
+          <t>Arkansas -4.4</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>12.8</v>
+        <v>4.4</v>
       </c>
       <c r="O49" t="n">
-        <v>12.5</v>
+        <v>4</v>
       </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
@@ -3760,58 +3808,58 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45962</v>
+        <v>45960</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>1:00 PM</t>
+          <t>6:30 PM</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Temple</t>
+          <t>Coastal Carolina</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>East Carolina</t>
+          <t>Marshall</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>26.2</v>
+        <v>26.5</v>
       </c>
       <c r="G50" t="n">
-        <v>31</v>
+        <v>33.4</v>
       </c>
       <c r="H50" t="n">
-        <v>34.52</v>
+        <v>29.87</v>
       </c>
       <c r="I50" t="n">
-        <v>7.2</v>
+        <v>4.9</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2000000000000002</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>East Carolina -4.5</t>
+          <t>Marshall -4.0</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>East Carolina -4.5</t>
+          <t>Marshall -6.5</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>East Carolina -4.7</t>
+          <t>Marshall -6.9</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>-4.7</v>
+        <v>-6.9</v>
       </c>
       <c r="O50" t="n">
-        <v>-4.5</v>
+        <v>-6.5</v>
       </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
@@ -3836,49 +3884,49 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Bowling Green</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Buffalo</t>
+          <t>Rutgers</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>23.5</v>
+        <v>37.8</v>
       </c>
       <c r="G51" t="n">
-        <v>21.8</v>
+        <v>25</v>
       </c>
       <c r="H51" t="n">
-        <v>50.56</v>
+        <v>77.48</v>
       </c>
       <c r="I51" t="n">
-        <v>6.1</v>
+        <v>8.1</v>
       </c>
       <c r="J51" t="n">
-        <v>0.2</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Bowling Green -2.0</t>
+          <t>Illinois -13.0</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Bowling Green -1.5</t>
+          <t>Illinois -12.5</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Bowling Green -1.7</t>
+          <t>Illinois -12.8</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>1.7</v>
+        <v>12.8</v>
       </c>
       <c r="O51" t="n">
-        <v>1.5</v>
+        <v>12.5</v>
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
@@ -3924,7 +3972,7 @@
         <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>0.1999999999999993</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -3933,7 +3981,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Old Dominion -17.0</t>
+          <t>Old Dominion -17.5</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -3945,7 +3993,7 @@
         <v>-17.2</v>
       </c>
       <c r="O52" t="n">
-        <v>-17</v>
+        <v>-17.5</v>
       </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
@@ -3965,54 +4013,54 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3:00 PM</t>
+          <t>1:00 PM</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Arkansas</t>
+          <t>Temple</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Mississippi State</t>
+          <t>East Carolina</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>34.2</v>
+        <v>26.2</v>
       </c>
       <c r="G53" t="n">
-        <v>29.8</v>
+        <v>31</v>
       </c>
       <c r="H53" t="n">
-        <v>57.25</v>
+        <v>34.52</v>
       </c>
       <c r="I53" t="n">
-        <v>9.300000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="J53" t="n">
-        <v>0.09999999999999964</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Arkansas -4.5</t>
+          <t>East Carolina -4.5</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Arkansas -4.5</t>
+          <t>East Carolina -4.5</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Arkansas -4.4</t>
+          <t>East Carolina -4.7</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>4.4</v>
+        <v>-4.7</v>
       </c>
       <c r="O53" t="n">
-        <v>4.5</v>
+        <v>-4.5</v>
       </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>

--- a/PEAR/PEAR Football/y2025/Spreads/spreads_tracker_week10.xlsx
+++ b/PEAR/PEAR Football/y2025/Spreads/spreads_tracker_week10.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U53"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,90 +450,95 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>outlet</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>home_team</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>away_team</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>home_score</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>away_score</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>PEAR_win_prob</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>GQI</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>difference</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>formatted_open</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>formattedSpread</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>PEAR</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pr_spread</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>spread</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>actual_margin</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>actual_spread</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>PEAR ATS OPEN</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>PEAR ATS CLOSE</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>PEAR SU</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>PEAR_OU</t>
         </is>
@@ -553,56 +558,61 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>ESPN2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Rice</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Memphis</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>18</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>38.1</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>8.91</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>3.5</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>6.100000000000001</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Memphis -14.0</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>Memphis -14.0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>Memphis -20.1</t>
         </is>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>-20.1</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>-14</v>
       </c>
-      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -615,61 +625,66 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>6:30 PM</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Louisiana Tech</t>
+          <t>ESPN</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sam Houston</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>35</v>
+          <t>Syracuse</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>North Carolina</t>
+        </is>
       </c>
       <c r="G3" t="n">
-        <v>12.7</v>
+        <v>28.6</v>
       </c>
       <c r="H3" t="n">
-        <v>90.63</v>
+        <v>21.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.5</v>
+        <v>65.48</v>
       </c>
       <c r="J3" t="n">
-        <v>5.800000000000001</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Louisiana Tech -17.0</t>
-        </is>
+        <v>6.9</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.7</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Louisiana Tech -16.5</t>
+          <t>Syracuse -2.0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Louisiana Tech -22.3</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>22.3</v>
+          <t>Syracuse -1.5</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Syracuse -7.2</t>
+        </is>
       </c>
       <c r="O3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
+        <v>7.2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.5</v>
+      </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -682,61 +697,66 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6:30 PM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Syracuse</t>
+          <t>CBSSN</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>North Carolina</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>28.6</v>
+          <t>Louisiana Tech</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sam Houston</t>
+        </is>
       </c>
       <c r="G4" t="n">
-        <v>21.3</v>
+        <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>65.48</v>
+        <v>12.7</v>
       </c>
       <c r="I4" t="n">
-        <v>6.9</v>
+        <v>90.63</v>
       </c>
       <c r="J4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Syracuse -2.0</t>
-        </is>
+        <v>2.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.300000000000001</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Syracuse -2.5</t>
+          <t>Louisiana Tech -17.0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Syracuse -7.2</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>7.2</v>
+          <t>Louisiana Tech -17.0</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Louisiana Tech -22.3</t>
+        </is>
       </c>
       <c r="O4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
+        <v>22.3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>17</v>
+      </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -754,56 +774,61 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Ohio State</t>
+          <t>CBSSN</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Penn State</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>33</v>
+          <t>UConn</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>UAB</t>
+        </is>
       </c>
       <c r="G5" t="n">
-        <v>16.6</v>
+        <v>40.2</v>
       </c>
       <c r="H5" t="n">
-        <v>83.59999999999999</v>
+        <v>23.6</v>
       </c>
       <c r="I5" t="n">
-        <v>9.300000000000001</v>
+        <v>83.29000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>4.699999999999999</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Ohio State -21.0</t>
-        </is>
+        <v>4.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Ohio State -21.0</t>
+          <t>UConn -11.5</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Ohio State -16.3</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>16.3</v>
+          <t>UConn -11.5</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>UConn -16.5</t>
+        </is>
       </c>
       <c r="O5" t="n">
-        <v>21</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
+        <v>16.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>11.5</v>
+      </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
-      <c r="U5" t="n">
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -816,61 +841,66 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>2:30 PM</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>UConn</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>UAB</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>40.2</v>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
       </c>
       <c r="G6" t="n">
-        <v>23.6</v>
+        <v>20.2</v>
       </c>
       <c r="H6" t="n">
-        <v>83.29000000000001</v>
+        <v>31.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.6</v>
+        <v>24.33</v>
       </c>
       <c r="J6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>UConn -11.5</t>
-        </is>
+        <v>9.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.9</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>UConn -12.0</t>
+          <t>Georgia -7.5</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>UConn -16.5</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>16.5</v>
+          <t>Georgia -7.0</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Georgia -10.9</t>
+        </is>
       </c>
       <c r="O6" t="n">
-        <v>12</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
+        <v>-10.9</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-7</v>
+      </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
-      <c r="U6" t="n">
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -883,61 +913,66 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2:45 PM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>ESPNU</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Virginia</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>21.8</v>
+          <t>Troy</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Arkansas State</t>
+        </is>
       </c>
       <c r="G7" t="n">
-        <v>30.2</v>
+        <v>33.6</v>
       </c>
       <c r="H7" t="n">
-        <v>25.81</v>
+        <v>22.6</v>
       </c>
       <c r="I7" t="n">
-        <v>6.9</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Virginia -4.5</t>
-        </is>
+        <v>5.6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.6</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Virginia -4.5</t>
+          <t>Troy -8.0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Virginia -8.4</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>-8.4</v>
+          <t>Troy -7.5</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Troy -11.1</t>
+        </is>
       </c>
       <c r="O7" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="P7" t="inlineStr"/>
+        <v>11.1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>7.5</v>
+      </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="n">
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -955,56 +990,61 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Florida</t>
+          <t>ESPN+</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Georgia</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>20.2</v>
+          <t>Western Kentucky</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>New Mexico State</t>
+        </is>
       </c>
       <c r="G8" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="H8" t="n">
-        <v>24.33</v>
+        <v>19.3</v>
       </c>
       <c r="I8" t="n">
-        <v>9.1</v>
+        <v>74.83</v>
       </c>
       <c r="J8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Georgia -7.5</t>
-        </is>
+        <v>4.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.6</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Georgia -7.0</t>
+          <t>Western Kentucky -8.5</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Georgia -10.9</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>-10.9</v>
+          <t>Western Kentucky -8.0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Western Kentucky -11.6</t>
+        </is>
       </c>
       <c r="O8" t="n">
-        <v>-7</v>
-      </c>
-      <c r="P8" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="P8" t="n">
+        <v>8</v>
+      </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="n">
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1017,61 +1057,66 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>2:30 PM</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t>BTN</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Vanderbilt</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>27.7</v>
+          <t>Minnesota</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Michigan State</t>
+        </is>
       </c>
       <c r="G9" t="n">
-        <v>21.5</v>
+        <v>28.8</v>
       </c>
       <c r="H9" t="n">
-        <v>61.85</v>
+        <v>21.8</v>
       </c>
       <c r="I9" t="n">
-        <v>9.699999999999999</v>
+        <v>63.94</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Texas -3.0</t>
-        </is>
+        <v>8.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.5</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Texas -2.5</t>
+          <t>Minnesota -4.0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Texas -6.2</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>6.2</v>
+          <t>Minnesota -3.5</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Minnesota -7.0</t>
+        </is>
       </c>
       <c r="O9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P9" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.5</v>
+      </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="n">
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,61 +1129,66 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Troy</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Arkansas State</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>33.6</v>
+          <t>Texas</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Vanderbilt</t>
+        </is>
       </c>
       <c r="G10" t="n">
-        <v>22.6</v>
+        <v>27.7</v>
       </c>
       <c r="H10" t="n">
-        <v>73.31999999999999</v>
+        <v>21.5</v>
       </c>
       <c r="I10" t="n">
-        <v>5.6</v>
+        <v>61.85</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Troy -8.0</t>
-        </is>
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.2</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Troy -7.5</t>
+          <t>Texas -3.0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Troy -11.1</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>11.1</v>
+          <t>Texas -3.0</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Texas -6.2</t>
+        </is>
       </c>
       <c r="O10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="P10" t="inlineStr"/>
+        <v>6.2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
-      <c r="U10" t="n">
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1151,61 +1201,66 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2:30 PM</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Western Kentucky</t>
+          <t>BTN</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>New Mexico State</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>30.9</v>
+          <t>Michigan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Purdue</t>
+        </is>
       </c>
       <c r="G11" t="n">
-        <v>19.3</v>
+        <v>37</v>
       </c>
       <c r="H11" t="n">
-        <v>74.83</v>
+        <v>13</v>
       </c>
       <c r="I11" t="n">
-        <v>4.5</v>
+        <v>91.95999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Western Kentucky -8.5</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.100000000000001</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Western Kentucky -8.0</t>
+          <t>Michigan -21.0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Western Kentucky -11.6</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>11.6</v>
+          <t>Michigan -21.0</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Michigan -24.1</t>
+        </is>
       </c>
       <c r="O11" t="n">
-        <v>8</v>
-      </c>
-      <c r="P11" t="inlineStr"/>
+        <v>24.1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>21</v>
+      </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="n">
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,66 +1269,83 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45962</v>
+        <v>45959</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2:30 PM</t>
+          <t>6:30 PM</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Minnesota</t>
+          <t>ESPN2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Michigan State</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>28.8</v>
+          <t>Middle Tennessee</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Jacksonville State</t>
+        </is>
       </c>
       <c r="G12" t="n">
-        <v>21.8</v>
+        <v>23.1</v>
       </c>
       <c r="H12" t="n">
-        <v>63.94</v>
+        <v>30.7</v>
       </c>
       <c r="I12" t="n">
-        <v>8.1</v>
+        <v>28.25</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Minnesota -4.0</t>
-        </is>
+        <v>3.8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.1</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Minnesota -3.5</t>
+          <t>Jacksonville State -6.5</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Minnesota -7.0</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>7</v>
+          <t>Jacksonville State -4.5</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Jacksonville State -7.6</t>
+        </is>
       </c>
       <c r="O12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
+        <v>-7.6</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-3</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Jacksonville State -3.0</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1285,61 +1357,66 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Baylor</t>
+          <t>ESPN</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>UCF</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>29.4</v>
+          <t>Ole Miss</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>South Carolina</t>
+        </is>
       </c>
       <c r="G13" t="n">
-        <v>28</v>
+        <v>32.8</v>
       </c>
       <c r="H13" t="n">
-        <v>50.56</v>
+        <v>17.8</v>
       </c>
       <c r="I13" t="n">
-        <v>8.9</v>
+        <v>80.81</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Baylor -4.5</t>
-        </is>
+        <v>8.6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Baylor -5.0</t>
+          <t>Ole Miss -13.5</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Baylor -1.5</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>1.5</v>
+          <t>Ole Miss -12.0</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Ole Miss -15.0</t>
+        </is>
       </c>
       <c r="O13" t="n">
-        <v>5</v>
-      </c>
-      <c r="P13" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="P13" t="n">
+        <v>12</v>
+      </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
-      <c r="U13" t="n">
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1348,66 +1425,83 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45962</v>
+        <v>45960</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>6:30 PM</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SMU</t>
+          <t>ESPN</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Miami</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>22.6</v>
+          <t>UTSA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tulane</t>
+        </is>
       </c>
       <c r="G14" t="n">
-        <v>31.7</v>
+        <v>28.4</v>
       </c>
       <c r="H14" t="n">
-        <v>24.13</v>
+        <v>31.4</v>
       </c>
       <c r="I14" t="n">
-        <v>8.800000000000001</v>
+        <v>38.42</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Miami -10.5</t>
-        </is>
+        <v>7.7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Miami -12.5</t>
+          <t>Tulane -4.0</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Miami -9.1</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
-        <v>-9.1</v>
+          <t>Tulane -6.0</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Tulane -3.0</t>
+        </is>
       </c>
       <c r="O14" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
+        <v>-3</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-6</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>22</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>UTSA -22.0</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1</v>
+      </c>
       <c r="U14" t="n">
         <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1415,78 +1509,71 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45959</v>
+        <v>45962</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6:30 PM</t>
+          <t>2:30 PM</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Middle Tennessee</t>
+          <t>ACC Network</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Jacksonville State</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>23.1</v>
+          <t>Stanford</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Pittsburgh</t>
+        </is>
       </c>
       <c r="G15" t="n">
-        <v>30.7</v>
+        <v>18</v>
       </c>
       <c r="H15" t="n">
-        <v>28.25</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>3.8</v>
+        <v>12.05</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Jacksonville State -6.5</t>
-        </is>
+        <v>5.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Jacksonville State -4.5</t>
+          <t>Pittsburgh -14.0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Jacksonville State -7.6</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>-7.6</v>
+          <t>Pittsburgh -14.0</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Pittsburgh -17.0</t>
+        </is>
       </c>
       <c r="O15" t="n">
-        <v>-4.5</v>
+        <v>-17</v>
       </c>
       <c r="P15" t="n">
-        <v>-3</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Jacksonville State -3.0</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1</v>
+        <v>-14</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1494,7 +1581,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45960</v>
+        <v>45962</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1503,56 +1590,61 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>UTSA</t>
+          <t>SEC Network</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Tulane</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>28.4</v>
+          <t>Auburn</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Kentucky</t>
+        </is>
       </c>
       <c r="G16" t="n">
-        <v>31.4</v>
+        <v>30.9</v>
       </c>
       <c r="H16" t="n">
-        <v>38.42</v>
+        <v>17</v>
       </c>
       <c r="I16" t="n">
-        <v>7.7</v>
+        <v>79.19</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Tulane -4.0</t>
-        </is>
+        <v>8.1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.9</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Tulane -6.0</t>
+          <t>Auburn -10.0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Tulane -3.0</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
-        <v>-3</v>
+          <t>Auburn -11.0</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Auburn -13.9</t>
+        </is>
       </c>
       <c r="O16" t="n">
-        <v>-6</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
+        <v>13.9</v>
+      </c>
+      <c r="P16" t="n">
+        <v>11</v>
+      </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="n">
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1565,61 +1657,66 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2:30 PM</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Stanford</t>
+          <t>CBSSN</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>18</v>
+          <t>San Diego State</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Wyoming</t>
+        </is>
       </c>
       <c r="G17" t="n">
-        <v>35</v>
+        <v>28.8</v>
       </c>
       <c r="H17" t="n">
-        <v>12.05</v>
+        <v>15.4</v>
       </c>
       <c r="I17" t="n">
-        <v>5.1</v>
+        <v>78.44</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Pittsburgh -14.0</t>
-        </is>
+        <v>6.4</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.9</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Pittsburgh -14.0</t>
+          <t>San Diego State -11.0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Pittsburgh -17.0</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
-        <v>-17</v>
+          <t>San Diego State -10.5</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>San Diego State -13.4</t>
+        </is>
       </c>
       <c r="O17" t="n">
-        <v>-14</v>
-      </c>
-      <c r="P17" t="inlineStr"/>
+        <v>13.4</v>
+      </c>
+      <c r="P17" t="n">
+        <v>10.5</v>
+      </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
-      <c r="U17" t="n">
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1632,61 +1729,66 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>6:30 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Auburn</t>
+          <t>ESPN2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Kentucky</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>30.9</v>
+          <t>North Texas</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Navy</t>
+        </is>
       </c>
       <c r="G18" t="n">
-        <v>17</v>
+        <v>38.6</v>
       </c>
       <c r="H18" t="n">
-        <v>79.19</v>
+        <v>29.2</v>
       </c>
       <c r="I18" t="n">
-        <v>8.1</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="J18" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="K18" t="n">
         <v>2.9</v>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Auburn -10.0</t>
-        </is>
-      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Auburn -11.0</t>
+          <t>North Texas -6.5</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Auburn -13.9</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>13.9</v>
+          <t>North Texas -6.5</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>North Texas -9.4</t>
+        </is>
       </c>
       <c r="O18" t="n">
-        <v>11</v>
-      </c>
-      <c r="P18" t="inlineStr"/>
+        <v>9.4</v>
+      </c>
+      <c r="P18" t="n">
+        <v>6.5</v>
+      </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
-      <c r="U18" t="n">
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1695,65 +1797,82 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45962</v>
+        <v>45959</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>San Diego State</t>
+          <t>CBSSN</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Wyoming</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>28.8</v>
+          <t>Missouri State</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Florida International</t>
+        </is>
       </c>
       <c r="G19" t="n">
-        <v>15.4</v>
+        <v>30.2</v>
       </c>
       <c r="H19" t="n">
-        <v>78.44</v>
+        <v>24.2</v>
       </c>
       <c r="I19" t="n">
-        <v>6.4</v>
+        <v>61.31</v>
       </c>
       <c r="J19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K19" t="n">
         <v>2.9</v>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>San Diego State -11.0</t>
-        </is>
-      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>San Diego State -10.5</t>
+          <t>Missouri State -4.0</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>San Diego State -13.4</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>13.4</v>
+          <t>Missouri State -3.0</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Missouri State -5.9</t>
+        </is>
       </c>
       <c r="O19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
+        <v>5.9</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>7</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Missouri State -7.0</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1</v>
+      </c>
       <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1766,61 +1885,66 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>2:30 PM</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>North Texas</t>
+          <t>FS1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Navy</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>38.6</v>
+          <t>Boise State</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Fresno State</t>
+        </is>
       </c>
       <c r="G20" t="n">
-        <v>29.2</v>
+        <v>36.6</v>
       </c>
       <c r="H20" t="n">
-        <v>69.90000000000001</v>
+        <v>17</v>
       </c>
       <c r="I20" t="n">
-        <v>8.300000000000001</v>
+        <v>87.59</v>
       </c>
       <c r="J20" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>North Texas -6.5</t>
-        </is>
+        <v>5.4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.699999999999999</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>North Texas -6.5</t>
+          <t>Boise State -18.5</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>North Texas -9.4</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>9.4</v>
+          <t>Boise State -17.0</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Boise State -19.7</t>
+        </is>
       </c>
       <c r="O20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="P20" t="inlineStr"/>
+        <v>19.7</v>
+      </c>
+      <c r="P20" t="n">
+        <v>17</v>
+      </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="n">
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1829,77 +1953,70 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45959</v>
+        <v>45962</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Missouri State</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Florida International</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>30.2</v>
+          <t>Ohio State</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Penn State</t>
+        </is>
       </c>
       <c r="G21" t="n">
-        <v>24.2</v>
+        <v>33</v>
       </c>
       <c r="H21" t="n">
-        <v>61.31</v>
+        <v>16.6</v>
       </c>
       <c r="I21" t="n">
-        <v>5.1</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Missouri State -4.0</t>
-        </is>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.699999999999999</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Missouri State -3.0</t>
+          <t>Ohio State -21.0</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Missouri State -5.9</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
-        <v>5.9</v>
+          <t>Ohio State -19.0</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Ohio State -16.3</t>
+        </is>
       </c>
       <c r="O21" t="n">
-        <v>3</v>
+        <v>16.3</v>
       </c>
       <c r="P21" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Missouri State -7.0</t>
-        </is>
-      </c>
-      <c r="R21" t="n">
-        <v>1</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1</v>
-      </c>
-      <c r="U21" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1912,61 +2029,66 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2:30 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Boise State</t>
+          <t>FS1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Fresno State</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>36.6</v>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>West Virginia</t>
+        </is>
       </c>
       <c r="G22" t="n">
-        <v>17</v>
+        <v>31.8</v>
       </c>
       <c r="H22" t="n">
-        <v>87.59</v>
+        <v>16.8</v>
       </c>
       <c r="I22" t="n">
-        <v>5.4</v>
+        <v>81.33</v>
       </c>
       <c r="J22" t="n">
-        <v>2.699999999999999</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Boise State -18.5</t>
-        </is>
+        <v>6.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.6</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Boise State -17.0</t>
+          <t>Houston -14.5</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Boise State -19.7</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
-        <v>19.7</v>
+          <t>Houston -12.5</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Houston -15.1</t>
+        </is>
       </c>
       <c r="O22" t="n">
-        <v>17</v>
-      </c>
-      <c r="P22" t="inlineStr"/>
+        <v>15.1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>12.5</v>
+      </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
-      <c r="U22" t="n">
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1979,61 +2101,66 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Michigan</t>
+          <t>CBS</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Purdue</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>37</v>
+          <t>Air Force</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Army</t>
+        </is>
       </c>
       <c r="G23" t="n">
-        <v>13</v>
+        <v>29.4</v>
       </c>
       <c r="H23" t="n">
-        <v>91.95999999999999</v>
+        <v>30.9</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>43.03</v>
       </c>
       <c r="J23" t="n">
-        <v>2.600000000000001</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Michigan -21.0</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.5</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Michigan -21.5</t>
+          <t>Army -1.0</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Michigan -24.1</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
-        <v>24.1</v>
+          <t>Air Force -1.0</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Army -1.5</t>
+        </is>
       </c>
       <c r="O23" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="P23" t="inlineStr"/>
+        <v>-1.5</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="n">
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,61 +2173,66 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>2:45 PM</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Ole Miss</t>
+          <t>ESPN2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>South Carolina</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>32.8</v>
+          <t>California</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Virginia</t>
+        </is>
       </c>
       <c r="G24" t="n">
-        <v>17.8</v>
+        <v>21.8</v>
       </c>
       <c r="H24" t="n">
-        <v>80.81</v>
+        <v>30.2</v>
       </c>
       <c r="I24" t="n">
-        <v>8.6</v>
+        <v>25.81</v>
       </c>
       <c r="J24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Ole Miss -13.5</t>
-        </is>
+        <v>6.9</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.4</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Ole Miss -12.5</t>
+          <t>Virginia -4.5</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Ole Miss -15.0</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
-        <v>15</v>
+          <t>Virginia -6.0</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Virginia -8.4</t>
+        </is>
       </c>
       <c r="O24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="P24" t="inlineStr"/>
+        <v>-8.4</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-6</v>
+      </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="n">
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2113,61 +2245,66 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3:00 PM</t>
+          <t>2:30 PM</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Western Michigan</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Central Michigan</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>26.2</v>
+          <t>Kansas State</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Texas Tech</t>
+        </is>
       </c>
       <c r="G25" t="n">
-        <v>19.6</v>
+        <v>22.5</v>
       </c>
       <c r="H25" t="n">
-        <v>62.64</v>
+        <v>31.8</v>
       </c>
       <c r="I25" t="n">
-        <v>6.3</v>
+        <v>23.52</v>
       </c>
       <c r="J25" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Western Michigan -5.5</t>
-        </is>
+        <v>8.9</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.300000000000001</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Western Michigan -4.0</t>
+          <t>Texas Tech -7.0</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Western Michigan -6.5</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>6.5</v>
+          <t>Texas Tech -7.0</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Texas Tech -9.3</t>
+        </is>
       </c>
       <c r="O25" t="n">
-        <v>4</v>
-      </c>
-      <c r="P25" t="inlineStr"/>
+        <v>-9.300000000000001</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-7</v>
+      </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="n">
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2180,61 +2317,66 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2:00 PM</t>
+          <t>6:30 PM</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>UNLV</t>
+          <t>CBS</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>New Mexico</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>35.7</v>
+          <t>Oregon State</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Washington State</t>
+        </is>
       </c>
       <c r="G26" t="n">
-        <v>29.7</v>
+        <v>24.1</v>
       </c>
       <c r="H26" t="n">
-        <v>61.58</v>
+        <v>29.9</v>
       </c>
       <c r="I26" t="n">
-        <v>7.6</v>
+        <v>31.78</v>
       </c>
       <c r="J26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>UNLV -5.0</t>
-        </is>
+        <v>5.9</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.3</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>UNLV -3.5</t>
+          <t>Washington State -4.5</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>UNLV -6.0</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>6</v>
+          <t>Washington State -3.5</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Washington State -5.8</t>
+        </is>
       </c>
       <c r="O26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="P26" t="inlineStr"/>
+        <v>-5.8</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-3.5</v>
+      </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="n">
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2252,56 +2394,61 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Florida State</t>
+          <t>ESPN2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Wake Forest</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>30.2</v>
+          <t>NC State</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Georgia Tech</t>
+        </is>
       </c>
       <c r="G27" t="n">
-        <v>17.8</v>
+        <v>25.7</v>
       </c>
       <c r="H27" t="n">
-        <v>77.08</v>
+        <v>33.4</v>
       </c>
       <c r="I27" t="n">
+        <v>27.34</v>
+      </c>
+      <c r="J27" t="n">
         <v>8.1</v>
       </c>
-      <c r="J27" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Florida State -7.5</t>
-        </is>
+      <c r="K27" t="n">
+        <v>2.2</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Florida State -10.0</t>
+          <t>Georgia Tech -6.5</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Florida State -12.5</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
-        <v>12.5</v>
+          <t>Georgia Tech -5.5</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Georgia Tech -7.7</t>
+        </is>
       </c>
       <c r="O27" t="n">
-        <v>10</v>
-      </c>
-      <c r="P27" t="inlineStr"/>
+        <v>-7.7</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-5.5</v>
+      </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="n">
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2314,61 +2461,66 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>3:00 PM</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Air Force</t>
+          <t>ESPN+</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Army</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>29.4</v>
+          <t>Kansas</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Oklahoma State</t>
+        </is>
       </c>
       <c r="G28" t="n">
-        <v>30.9</v>
+        <v>41.8</v>
       </c>
       <c r="H28" t="n">
-        <v>43.03</v>
+        <v>15.4</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>93.73999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Army -1.0</t>
-        </is>
+        <v>3.2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Air Force -1.0</t>
+          <t>Kansas -24.5</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Army -1.5</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
-        <v>-1.5</v>
+          <t>Kansas -24.5</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Kansas -26.5</t>
+        </is>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" t="inlineStr"/>
+        <v>26.5</v>
+      </c>
+      <c r="P28" t="n">
+        <v>24.5</v>
+      </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="n">
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2381,61 +2533,66 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>9:15 PM</t>
+          <t>6:30 PM</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Utah</t>
+          <t>ACC Network</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Cincinnati</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>32.4</v>
+          <t>Florida State</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Wake Forest</t>
+        </is>
       </c>
       <c r="G29" t="n">
-        <v>20.2</v>
+        <v>30.2</v>
       </c>
       <c r="H29" t="n">
-        <v>75.87</v>
+        <v>17.8</v>
       </c>
       <c r="I29" t="n">
-        <v>9.199999999999999</v>
+        <v>77.08</v>
       </c>
       <c r="J29" t="n">
-        <v>2.300000000000001</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Utah -7.0</t>
-        </is>
+        <v>8.1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Utah -10.0</t>
+          <t>Florida State -7.5</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Utah -12.3</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
-        <v>12.3</v>
+          <t>Florida State -10.5</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Florida State -12.5</t>
+        </is>
       </c>
       <c r="O29" t="n">
-        <v>10</v>
-      </c>
-      <c r="P29" t="inlineStr"/>
+        <v>12.5</v>
+      </c>
+      <c r="P29" t="n">
+        <v>10.5</v>
+      </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="n">
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2448,61 +2605,66 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>6:30 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NC State</t>
+          <t>ESPNU</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Georgia Tech</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>25.7</v>
+          <t>Baylor</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>UCF</t>
+        </is>
       </c>
       <c r="G30" t="n">
-        <v>33.4</v>
+        <v>29.4</v>
       </c>
       <c r="H30" t="n">
-        <v>27.34</v>
+        <v>28</v>
       </c>
       <c r="I30" t="n">
-        <v>8.1</v>
+        <v>50.56</v>
       </c>
       <c r="J30" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Georgia Tech -6.5</t>
-        </is>
+        <v>8.9</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Georgia Tech -5.5</t>
+          <t>Baylor -4.5</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Georgia Tech -7.7</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
-        <v>-7.7</v>
+          <t>Baylor -3.5</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Baylor -1.5</t>
+        </is>
       </c>
       <c r="O30" t="n">
-        <v>-5.5</v>
-      </c>
-      <c r="P30" t="inlineStr"/>
+        <v>1.5</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.5</v>
+      </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="n">
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2515,61 +2677,66 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>9:15 PM</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>ESPN</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>West Virginia</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>31.8</v>
+          <t>Utah</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Cincinnati</t>
+        </is>
       </c>
       <c r="G31" t="n">
-        <v>16.8</v>
+        <v>32.4</v>
       </c>
       <c r="H31" t="n">
-        <v>81.33</v>
+        <v>20.2</v>
       </c>
       <c r="I31" t="n">
-        <v>6.5</v>
+        <v>75.87</v>
       </c>
       <c r="J31" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Houston -14.5</t>
-        </is>
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.800000000000001</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Houston -13.0</t>
+          <t>Utah -7.0</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Houston -15.1</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
-        <v>15.1</v>
+          <t>Utah -10.5</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Utah -12.3</t>
+        </is>
       </c>
       <c r="O31" t="n">
-        <v>13</v>
-      </c>
-      <c r="P31" t="inlineStr"/>
+        <v>12.3</v>
+      </c>
+      <c r="P31" t="n">
+        <v>10.5</v>
+      </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="n">
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2582,61 +2749,66 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2:00 PM</t>
+          <t>6:30 PM</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Virginia Tech</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Louisville</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>20.8</v>
+          <t>Tennessee</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Oklahoma</t>
+        </is>
       </c>
       <c r="G32" t="n">
-        <v>33.4</v>
+        <v>27.8</v>
       </c>
       <c r="H32" t="n">
-        <v>18.17</v>
+        <v>26.6</v>
       </c>
       <c r="I32" t="n">
-        <v>6.8</v>
+        <v>48.88</v>
       </c>
       <c r="J32" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Louisville -10.0</t>
-        </is>
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.8</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Louisville -10.5</t>
+          <t>Tennessee -3.5</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Louisville -12.6</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
-        <v>-12.6</v>
+          <t>Tennessee -3.0</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Tennessee -1.2</t>
+        </is>
       </c>
       <c r="O32" t="n">
-        <v>-10.5</v>
-      </c>
-      <c r="P32" t="inlineStr"/>
+        <v>1.2</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="n">
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2649,61 +2821,66 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>3:00 PM</t>
+          <t>2:00 PM</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Kansas</t>
+          <t>The CW Network</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Oklahoma State</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>41.8</v>
+          <t>Virginia Tech</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Louisville</t>
+        </is>
       </c>
       <c r="G33" t="n">
-        <v>15.4</v>
+        <v>20.8</v>
       </c>
       <c r="H33" t="n">
-        <v>93.73999999999999</v>
+        <v>33.4</v>
       </c>
       <c r="I33" t="n">
-        <v>3.2</v>
+        <v>18.17</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Kansas -24.5</t>
-        </is>
+        <v>6.8</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.6</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Kansas -24.5</t>
+          <t>Louisville -10.0</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Kansas -26.5</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
-        <v>26.5</v>
+          <t>Louisville -11.0</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Louisville -12.6</t>
+        </is>
       </c>
       <c r="O33" t="n">
-        <v>24.5</v>
-      </c>
-      <c r="P33" t="inlineStr"/>
+        <v>-12.6</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-11</v>
+      </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="n">
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2716,61 +2893,62 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Clemson</t>
-        </is>
-      </c>
+          <t>2:00 PM</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Duke</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
+          <t>UNLV</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>New Mexico</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="H34" t="n">
         <v>29.7</v>
       </c>
-      <c r="G34" t="n">
-        <v>25.2</v>
-      </c>
-      <c r="H34" t="n">
-        <v>57.8</v>
-      </c>
       <c r="I34" t="n">
-        <v>9.199999999999999</v>
+        <v>61.58</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Clemson -3.5</t>
-        </is>
+        <v>7.6</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.5</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Clemson -2.5</t>
+          <t>UNLV -5.0</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Clemson -4.5</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+          <t>UNLV -4.5</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>UNLV -6.0</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>6</v>
+      </c>
+      <c r="P34" t="n">
         <v>4.5</v>
       </c>
-      <c r="O34" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="n">
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2783,61 +2961,66 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>6:00 PM</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Iowa State</t>
+          <t>FS1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Arizona State</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>28.4</v>
+          <t>Colorado</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Arizona</t>
+        </is>
       </c>
       <c r="G35" t="n">
-        <v>22.4</v>
+        <v>26.2</v>
       </c>
       <c r="H35" t="n">
-        <v>62.37</v>
+        <v>28.7</v>
       </c>
       <c r="I35" t="n">
-        <v>9</v>
+        <v>38.69</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Iowa State -4.0</t>
-        </is>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.5</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Iowa State -8.0</t>
+          <t>Arizona -4.5</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Iowa State -6.0</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
-        <v>6</v>
+          <t>Arizona -4.0</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Arizona -2.5</t>
+        </is>
       </c>
       <c r="O35" t="n">
-        <v>8</v>
-      </c>
-      <c r="P35" t="inlineStr"/>
+        <v>-2.5</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-4</v>
+      </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="n">
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2850,61 +3033,66 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>6:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Nebraska</t>
+          <t>TNT</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>USC</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>26.8</v>
+          <t>Iowa State</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Arizona State</t>
+        </is>
       </c>
       <c r="G36" t="n">
-        <v>31.4</v>
+        <v>28.4</v>
       </c>
       <c r="H36" t="n">
-        <v>35.03</v>
+        <v>22.4</v>
       </c>
       <c r="I36" t="n">
-        <v>9.300000000000001</v>
+        <v>62.37</v>
       </c>
       <c r="J36" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>USC -6.0</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.5</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>USC -6.5</t>
+          <t>Iowa State -4.0</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>USC -4.6</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
-        <v>-4.6</v>
+          <t>Iowa State -7.5</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Iowa State -6.0</t>
+        </is>
       </c>
       <c r="O36" t="n">
-        <v>-6.5</v>
-      </c>
-      <c r="P36" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="P36" t="n">
+        <v>7.5</v>
+      </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="n">
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2917,61 +3105,66 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2:30 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Kansas State</t>
+          <t>ESPN</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Texas Tech</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>22.5</v>
+          <t>SMU</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Miami</t>
+        </is>
       </c>
       <c r="G37" t="n">
-        <v>31.8</v>
+        <v>22.6</v>
       </c>
       <c r="H37" t="n">
-        <v>23.52</v>
+        <v>31.7</v>
       </c>
       <c r="I37" t="n">
-        <v>8.9</v>
+        <v>24.13</v>
       </c>
       <c r="J37" t="n">
-        <v>1.800000000000001</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Texas Tech -7.0</t>
-        </is>
+        <v>8.800000000000001</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1.4</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Texas Tech -7.5</t>
+          <t>Miami -10.5</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Texas Tech -9.3</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
-        <v>-9.300000000000001</v>
+          <t>Miami -10.5</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Miami -9.1</t>
+        </is>
       </c>
       <c r="O37" t="n">
-        <v>-7.5</v>
-      </c>
-      <c r="P37" t="inlineStr"/>
+        <v>-9.1</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-10.5</v>
+      </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="n">
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2989,56 +3182,61 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Boston College</t>
+          <t>CBS</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Notre Dame</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>14.2</v>
+          <t>Maryland</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Indiana</t>
+        </is>
       </c>
       <c r="G38" t="n">
-        <v>44.4</v>
+        <v>13.6</v>
       </c>
       <c r="H38" t="n">
-        <v>3.05</v>
+        <v>34</v>
       </c>
       <c r="I38" t="n">
-        <v>4.1</v>
+        <v>8.73</v>
       </c>
       <c r="J38" t="n">
-        <v>1.800000000000001</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Notre Dame -28.5</t>
-        </is>
+        <v>7.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1.199999999999999</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Notre Dame -28.5</t>
+          <t>Indiana -21.0</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Notre Dame -30.3</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
-        <v>-30.3</v>
+          <t>Indiana -21.5</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Indiana -20.3</t>
+        </is>
       </c>
       <c r="O38" t="n">
-        <v>-28.5</v>
-      </c>
-      <c r="P38" t="inlineStr"/>
+        <v>-20.3</v>
+      </c>
+      <c r="P38" t="n">
+        <v>-21.5</v>
+      </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="n">
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3051,61 +3249,66 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>6:30 PM</t>
+          <t>2:30 PM</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Tennessee</t>
+          <t>CBSSN</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Oklahoma</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>27.8</v>
+          <t>Liberty</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Delaware</t>
+        </is>
       </c>
       <c r="G39" t="n">
-        <v>26.6</v>
+        <v>28</v>
       </c>
       <c r="H39" t="n">
-        <v>48.88</v>
+        <v>23.8</v>
       </c>
       <c r="I39" t="n">
-        <v>9.699999999999999</v>
+        <v>57.52</v>
       </c>
       <c r="J39" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Tennessee -3.5</t>
-        </is>
+        <v>6.3</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.1</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Tennessee -3.0</t>
+          <t>Liberty -3.0</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Tennessee -1.2</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
-        <v>1.2</v>
+          <t>Liberty -3.0</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Liberty -4.1</t>
+        </is>
       </c>
       <c r="O39" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="P39" t="n">
         <v>3</v>
       </c>
-      <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="n">
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3118,61 +3321,66 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>6:30 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Oregon State</t>
+          <t>ACC Network</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Washington State</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>24.1</v>
+          <t>Clemson</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Duke</t>
+        </is>
       </c>
       <c r="G40" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="H40" t="n">
-        <v>31.78</v>
+        <v>25.2</v>
       </c>
       <c r="I40" t="n">
-        <v>5.9</v>
+        <v>57.8</v>
       </c>
       <c r="J40" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Washington State -4.5</t>
-        </is>
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Washington State -4.0</t>
+          <t>Clemson -3.5</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Washington State -5.8</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
-        <v>-5.8</v>
+          <t>Clemson -3.5</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Clemson -4.5</t>
+        </is>
       </c>
       <c r="O40" t="n">
-        <v>-4</v>
-      </c>
-      <c r="P40" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3.5</v>
+      </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="n">
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3185,61 +3393,66 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>6:00 PM</t>
+          <t>6:30 PM</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Colorado</t>
+          <t>NBC</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Arizona</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>26.2</v>
+          <t>Nebraska</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>USC</t>
+        </is>
       </c>
       <c r="G41" t="n">
-        <v>28.7</v>
+        <v>26.8</v>
       </c>
       <c r="H41" t="n">
-        <v>38.69</v>
+        <v>31.4</v>
       </c>
       <c r="I41" t="n">
-        <v>8.300000000000001</v>
+        <v>35.03</v>
       </c>
       <c r="J41" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Arizona -4.5</t>
-        </is>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.9000000000000004</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Arizona -4.0</t>
+          <t>USC -6.0</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Arizona -2.5</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
-        <v>-2.5</v>
+          <t>USC -5.5</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>USC -4.6</t>
+        </is>
       </c>
       <c r="O41" t="n">
-        <v>-4</v>
-      </c>
-      <c r="P41" t="inlineStr"/>
+        <v>-4.6</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-5.5</v>
+      </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="n">
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3248,65 +3461,82 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>45962</v>
+        <v>45958</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2:30 PM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Maryland</t>
+          <t>ESPNU</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Indiana</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>13.6</v>
+          <t>Kennesaw State</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>UTEP</t>
+        </is>
       </c>
       <c r="G42" t="n">
-        <v>34</v>
+        <v>28.6</v>
       </c>
       <c r="H42" t="n">
-        <v>8.73</v>
+        <v>16.2</v>
       </c>
       <c r="I42" t="n">
-        <v>7.5</v>
+        <v>76.28</v>
       </c>
       <c r="J42" t="n">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Indiana -21.0</t>
-        </is>
+        <v>4.8</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.8000000000000007</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Indiana -21.5</t>
+          <t>Kennesaw State -9.5</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Indiana -20.3</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
-        <v>-20.3</v>
+          <t>Kennesaw State -11.5</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Kennesaw State -12.3</t>
+        </is>
       </c>
       <c r="O42" t="n">
-        <v>-21.5</v>
-      </c>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
+        <v>12.3</v>
+      </c>
+      <c r="P42" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>13</v>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Kennesaw State -13.0</t>
+        </is>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1</v>
+      </c>
       <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3324,56 +3554,61 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Liberty</t>
+          <t>ESPN</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Delaware</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>28</v>
+          <t>Boston College</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Notre Dame</t>
+        </is>
       </c>
       <c r="G43" t="n">
-        <v>23.8</v>
+        <v>14.2</v>
       </c>
       <c r="H43" t="n">
-        <v>57.52</v>
+        <v>44.4</v>
       </c>
       <c r="I43" t="n">
-        <v>6.3</v>
+        <v>3.05</v>
       </c>
       <c r="J43" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Liberty -3.0</t>
-        </is>
+        <v>4.1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.8000000000000007</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Liberty -3.0</t>
+          <t>Notre Dame -28.5</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Liberty -4.1</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
-        <v>4.1</v>
+          <t>Notre Dame -29.5</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Notre Dame -30.3</t>
+        </is>
       </c>
       <c r="O43" t="n">
-        <v>3</v>
-      </c>
-      <c r="P43" t="inlineStr"/>
+        <v>-30.3</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-29.5</v>
+      </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="n">
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3382,77 +3617,70 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>45958</v>
+        <v>45962</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Kennesaw State</t>
+          <t>ESPN+</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>UTEP</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>28.6</v>
+          <t>Bowling Green</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Buffalo</t>
+        </is>
       </c>
       <c r="G44" t="n">
-        <v>16.2</v>
+        <v>23.5</v>
       </c>
       <c r="H44" t="n">
-        <v>76.28</v>
+        <v>21.8</v>
       </c>
       <c r="I44" t="n">
-        <v>4.8</v>
+        <v>50.56</v>
       </c>
       <c r="J44" t="n">
-        <v>0.8000000000000007</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Kennesaw State -9.5</t>
-        </is>
+        <v>6.1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.8</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Kennesaw State -11.5</t>
+          <t>Bowling Green -2.0</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Kennesaw State -12.3</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
-        <v>12.3</v>
+          <t>Bowling Green -2.5</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Bowling Green -1.7</t>
+        </is>
       </c>
       <c r="O44" t="n">
-        <v>11.5</v>
+        <v>1.7</v>
       </c>
       <c r="P44" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>Kennesaw State -13.0</t>
-        </is>
-      </c>
-      <c r="R44" t="n">
-        <v>1</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1</v>
-      </c>
-      <c r="U44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3465,61 +3693,66 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>2:30 PM</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Bowling Green</t>
+          <t>ESPN+</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Buffalo</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>23.5</v>
+          <t>South Alabama</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Louisiana</t>
+        </is>
       </c>
       <c r="G45" t="n">
-        <v>21.8</v>
+        <v>31</v>
       </c>
       <c r="H45" t="n">
-        <v>50.56</v>
+        <v>26.2</v>
       </c>
       <c r="I45" t="n">
-        <v>6.1</v>
+        <v>58.62</v>
       </c>
       <c r="J45" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Bowling Green -2.0</t>
-        </is>
+        <v>6.2</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.7999999999999998</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Bowling Green -2.5</t>
+          <t>South Alabama -4.0</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Bowling Green -1.7</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
-        <v>1.7</v>
+          <t>South Alabama -4.0</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>South Alabama -4.8</t>
+        </is>
       </c>
       <c r="O45" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P45" t="inlineStr"/>
+        <v>4.8</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="n">
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,66 +3761,83 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45962</v>
+        <v>45958</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2:30 PM</t>
+          <t>7:00 PM</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>South Alabama</t>
+          <t>ESPN2</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Louisiana</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>31</v>
+          <t>Texas State</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>James Madison</t>
+        </is>
       </c>
       <c r="G46" t="n">
-        <v>26.2</v>
+        <v>26.7</v>
       </c>
       <c r="H46" t="n">
-        <v>58.62</v>
+        <v>33.4</v>
       </c>
       <c r="I46" t="n">
-        <v>6.2</v>
+        <v>29.63</v>
       </c>
       <c r="J46" t="n">
+        <v>7</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.7999999999999998</v>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>South Alabama -4.0</t>
-        </is>
-      </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>South Alabama -4.0</t>
+          <t>James Madison -6.0</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>South Alabama -4.8</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
-        <v>4.8</v>
+          <t>James Madison -7.5</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>James Madison -6.7</t>
+        </is>
       </c>
       <c r="O46" t="n">
-        <v>4</v>
-      </c>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
+        <v>-6.7</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-32</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>James Madison -32.0</t>
+        </is>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -3595,78 +3845,71 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>45958</v>
+        <v>45962</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>7:00 PM</t>
+          <t>2:30 PM</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Texas State</t>
+          <t>ESPN+</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>James Madison</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>26.7</v>
+          <t>UL Monroe</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Old Dominion</t>
+        </is>
       </c>
       <c r="G47" t="n">
-        <v>33.4</v>
+        <v>18.9</v>
       </c>
       <c r="H47" t="n">
-        <v>29.63</v>
+        <v>36.1</v>
       </c>
       <c r="I47" t="n">
-        <v>7</v>
+        <v>11.93</v>
       </c>
       <c r="J47" t="n">
-        <v>0.7999999999999998</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>James Madison -6.0</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.6999999999999993</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>James Madison -7.5</t>
+          <t>Old Dominion -15.0</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>James Madison -6.7</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
-        <v>-6.7</v>
+          <t>Old Dominion -16.5</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Old Dominion -17.2</t>
+        </is>
       </c>
       <c r="O47" t="n">
-        <v>-7.5</v>
+        <v>-17.2</v>
       </c>
       <c r="P47" t="n">
-        <v>-32</v>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>James Madison -32.0</t>
-        </is>
-      </c>
-      <c r="R47" t="n">
-        <v>1</v>
-      </c>
-      <c r="S47" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" t="n">
-        <v>1</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1</v>
+        <v>-16.5</v>
+      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -3678,61 +3921,66 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>9:30 PM</t>
+          <t>3:00 PM</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>San José State</t>
+          <t>SEC Network</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Hawai'i</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>27.8</v>
+          <t>Arkansas</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Mississippi State</t>
+        </is>
       </c>
       <c r="G48" t="n">
-        <v>26.2</v>
+        <v>34.2</v>
       </c>
       <c r="H48" t="n">
-        <v>49.72</v>
+        <v>29.8</v>
       </c>
       <c r="I48" t="n">
-        <v>7</v>
+        <v>57.25</v>
       </c>
       <c r="J48" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>San José State -2.5</t>
-        </is>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.5999999999999996</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>San José State -1.0</t>
+          <t>Arkansas -4.5</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>San José State -1.5</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
-        <v>1.5</v>
+          <t>Arkansas -5.0</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Arkansas -4.4</t>
+        </is>
       </c>
       <c r="O48" t="n">
-        <v>1</v>
-      </c>
-      <c r="P48" t="inlineStr"/>
+        <v>4.4</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="n">
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3750,56 +3998,61 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Arkansas</t>
+          <t>ESPNU</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Mississippi State</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>34.2</v>
+          <t>Western Michigan</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Central Michigan</t>
+        </is>
       </c>
       <c r="G49" t="n">
-        <v>29.8</v>
+        <v>26.2</v>
       </c>
       <c r="H49" t="n">
-        <v>57.25</v>
+        <v>19.6</v>
       </c>
       <c r="I49" t="n">
-        <v>9.300000000000001</v>
+        <v>62.64</v>
       </c>
       <c r="J49" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Arkansas -4.5</t>
-        </is>
+        <v>6.3</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.5</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Arkansas -4.0</t>
+          <t>Western Michigan -5.5</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Arkansas -4.4</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
-        <v>4.4</v>
+          <t>Western Michigan -6.0</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Western Michigan -6.5</t>
+        </is>
       </c>
       <c r="O49" t="n">
-        <v>4</v>
-      </c>
-      <c r="P49" t="inlineStr"/>
+        <v>6.5</v>
+      </c>
+      <c r="P49" t="n">
+        <v>6</v>
+      </c>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="n">
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3808,65 +4061,70 @@
         <v>48</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45960</v>
+        <v>45962</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>6:30 PM</t>
+          <t>1:00 PM</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Coastal Carolina</t>
+          <t>ESPN+</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Marshall</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>26.5</v>
+          <t>Temple</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>East Carolina</t>
+        </is>
       </c>
       <c r="G50" t="n">
-        <v>33.4</v>
+        <v>26.2</v>
       </c>
       <c r="H50" t="n">
-        <v>29.87</v>
+        <v>31</v>
       </c>
       <c r="I50" t="n">
-        <v>4.9</v>
+        <v>34.52</v>
       </c>
       <c r="J50" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Marshall -4.0</t>
-        </is>
+        <v>7.2</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.2999999999999998</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Marshall -6.5</t>
+          <t>East Carolina -4.5</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Marshall -6.9</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
-        <v>-6.9</v>
+          <t>East Carolina -5.0</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>East Carolina -4.7</t>
+        </is>
       </c>
       <c r="O50" t="n">
-        <v>-6.5</v>
-      </c>
-      <c r="P50" t="inlineStr"/>
+        <v>-4.7</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-5</v>
+      </c>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="n">
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3884,56 +4142,61 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>NBC</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t>Illinois</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Rutgers</t>
         </is>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>37.8</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>25</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>77.48</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>8.1</v>
       </c>
-      <c r="J51" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="K51" t="inlineStr">
+      <c r="K51" t="n">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="L51" t="inlineStr">
         <is>
           <t>Illinois -13.0</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Illinois -12.5</t>
-        </is>
-      </c>
       <c r="M51" t="inlineStr">
         <is>
+          <t>Illinois -13.0</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
           <t>Illinois -12.8</t>
         </is>
       </c>
-      <c r="N51" t="n">
+      <c r="O51" t="n">
         <v>12.8</v>
       </c>
-      <c r="O51" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="P51" t="inlineStr"/>
+      <c r="P51" t="n">
+        <v>13</v>
+      </c>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="n">
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3942,66 +4205,83 @@
         <v>50</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>45962</v>
+        <v>45960</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2:30 PM</t>
+          <t>6:30 PM</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>UL Monroe</t>
+          <t>ESPN2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Old Dominion</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>18.9</v>
+          <t>Coastal Carolina</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Marshall</t>
+        </is>
       </c>
       <c r="G52" t="n">
-        <v>36.1</v>
+        <v>26.5</v>
       </c>
       <c r="H52" t="n">
-        <v>11.93</v>
+        <v>33.4</v>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>29.87</v>
       </c>
       <c r="J52" t="n">
-        <v>0.3000000000000007</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Old Dominion -15.0</t>
-        </is>
+        <v>4.9</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.09999999999999964</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Old Dominion -17.5</t>
+          <t>Marshall -4.0</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Old Dominion -17.2</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
-        <v>-17.2</v>
+          <t>Marshall -7.0</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Marshall -6.9</t>
+        </is>
       </c>
       <c r="O52" t="n">
-        <v>-17.5</v>
-      </c>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
+        <v>-6.9</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-7</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>17</v>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Coastal Carolina -17.0</t>
+        </is>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1</v>
+      </c>
       <c r="U52" t="n">
         <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -4013,61 +4293,66 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>1:00 PM</t>
+          <t>9:30 PM</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Temple</t>
+          <t>CBSSN</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>East Carolina</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
+          <t>San José State</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Hawai'i</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="H53" t="n">
         <v>26.2</v>
       </c>
-      <c r="G53" t="n">
-        <v>31</v>
-      </c>
-      <c r="H53" t="n">
-        <v>34.52</v>
-      </c>
       <c r="I53" t="n">
-        <v>7.2</v>
+        <v>49.72</v>
       </c>
       <c r="J53" t="n">
-        <v>0.2000000000000002</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>East Carolina -4.5</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>East Carolina -4.5</t>
+          <t>San José State -2.5</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>East Carolina -4.7</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
-        <v>-4.7</v>
+          <t>San José State -1.5</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>San José State -1.5</t>
+        </is>
       </c>
       <c r="O53" t="n">
-        <v>-4.5</v>
-      </c>
-      <c r="P53" t="inlineStr"/>
+        <v>1.5</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.5</v>
+      </c>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="n">
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="n">
         <v>0</v>
       </c>
     </row>

--- a/PEAR/PEAR Football/y2025/Spreads/spreads_tracker_week10.xlsx
+++ b/PEAR/PEAR Football/y2025/Spreads/spreads_tracker_week10.xlsx
@@ -2896,7 +2896,11 @@
           <t>2:00 PM</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>UNLV</t>
